--- a/eval_perf/RB_raw_weighted_data_highlighted.xlsx
+++ b/eval_perf/RB_raw_weighted_data_highlighted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshg\PycharmProjects\oran-resource-opt\eval_perf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BED0450-5464-417F-B711-8123B8E479D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4013B2-6827-47C6-8D62-99E9CF76C1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B99CFA21-9F7F-458A-B3E2-A4B52BD002D9}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="RB_raw_weighted_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -725,7 +726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -840,6 +841,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -885,8 +906,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1265,17 +1288,21 @@
   <dimension ref="A1:L490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N84" sqref="N84"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1286,16 +1313,16 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1307,7 +1334,7 @@
       <c r="I1" t="s">
         <v>121</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K1" t="s">
@@ -1324,16 +1351,16 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.61567593321416303</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.55612791076684898</v>
       </c>
       <c r="E2">
         <v>0.495356793983039</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.61701761368624497</v>
       </c>
       <c r="G2">
@@ -1345,7 +1372,7 @@
       <c r="I2">
         <v>0.63905980119971995</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>0.65219494444680204</v>
       </c>
       <c r="K2">
@@ -1362,16 +1389,16 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.64674500709615101</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.71942320756480604</v>
       </c>
       <c r="E3">
         <v>0.458977224674184</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.61972445076148897</v>
       </c>
       <c r="G3">
@@ -1383,7 +1410,7 @@
       <c r="I3">
         <v>0.73218324293868497</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>0.67057593727843201</v>
       </c>
       <c r="K3">
@@ -1400,16 +1427,16 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.52858531068849801</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.54663141748780697</v>
       </c>
       <c r="E4">
         <v>0.46238614677019901</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.48039066840821298</v>
       </c>
       <c r="G4">
@@ -1421,7 +1448,7 @@
       <c r="I4">
         <v>0.53402157224872404</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>0.55460579238599605</v>
       </c>
       <c r="K4">
@@ -1438,16 +1465,16 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.49867900077737798</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.40299563171366598</v>
       </c>
       <c r="E5">
         <v>0.54556149497506501</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.38309099717045297</v>
       </c>
       <c r="G5">
@@ -1459,7 +1486,7 @@
       <c r="I5">
         <v>0.51627758783565902</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>0.50713568204772796</v>
       </c>
       <c r="K5">
@@ -1476,16 +1503,16 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.67081468488238505</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.63857142661556798</v>
       </c>
       <c r="E6">
         <v>0.47444194700680897</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.65275325486090197</v>
       </c>
       <c r="G6">
@@ -1497,7 +1524,7 @@
       <c r="I6">
         <v>0.65843798800269204</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>0.58232747954709696</v>
       </c>
       <c r="K6">
@@ -1514,16 +1541,16 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.62868067757616797</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.54419244054494997</v>
       </c>
       <c r="E7">
         <v>0.26954840336852298</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.30871460453726701</v>
       </c>
       <c r="G7">
@@ -1535,7 +1562,7 @@
       <c r="I7">
         <v>0.413306376299372</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>0.47028019511672903</v>
       </c>
       <c r="K7">
@@ -1552,16 +1579,16 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.56860820832776904</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.54272215953464198</v>
       </c>
       <c r="E8">
         <v>0.479688307527188</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0.60637231793707502</v>
       </c>
       <c r="G8">
@@ -1573,7 +1600,7 @@
       <c r="I8">
         <v>0.42380223021805202</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>0.46228493829051098</v>
       </c>
       <c r="K8">
@@ -1590,16 +1617,16 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.522555489096035</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.271843793073133</v>
       </c>
       <c r="E9">
         <v>0.49722631199366801</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0.41854923837218999</v>
       </c>
       <c r="G9">
@@ -1611,7 +1638,7 @@
       <c r="I9">
         <v>0.553853023668893</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>0.57912104304812395</v>
       </c>
       <c r="K9">
@@ -1628,16 +1655,16 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.68897101137837302</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.61547950049965605</v>
       </c>
       <c r="E10">
         <v>0.50821149421914502</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.64885611760820305</v>
       </c>
       <c r="G10">
@@ -1649,7 +1676,7 @@
       <c r="I10">
         <v>0.69197629670895</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>0.68154129071405201</v>
       </c>
       <c r="K10">
@@ -1666,16 +1693,16 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.50417939063880202</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.58326247687620303</v>
       </c>
       <c r="E11">
         <v>0.58262762665193202</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0.50469877972827004</v>
       </c>
       <c r="G11">
@@ -1687,7 +1714,7 @@
       <c r="I11">
         <v>0.51199304630814901</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>0.49268245510558401</v>
       </c>
       <c r="K11">
@@ -1704,16 +1731,16 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0.56371962546869203</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.27114861956663799</v>
       </c>
       <c r="E12">
         <v>0.55750413874650395</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.52456498721899802</v>
       </c>
       <c r="G12">
@@ -1725,7 +1752,7 @@
       <c r="I12">
         <v>0.27728410606251103</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>0.25924098493212899</v>
       </c>
       <c r="K12">
@@ -1742,16 +1769,16 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0.433178813225224</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.415407405465409</v>
       </c>
       <c r="E13">
         <v>0.47120733418170502</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0.44889890725799397</v>
       </c>
       <c r="G13">
@@ -1763,7 +1790,7 @@
       <c r="I13">
         <v>0.51331919736025799</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>0.46650541205444701</v>
       </c>
       <c r="K13">
@@ -1774,11 +1801,11 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C14">
+      <c r="C14" s="1">
         <f t="shared" ref="C14:L14" si="0">AVERAGE(C2:C13)</f>
         <v>0.57253276269746989</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>0.50898383247577728</v>
       </c>
@@ -1786,7 +1813,7 @@
         <f t="shared" si="0"/>
         <v>0.48356143534149676</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>0.51780266146227483</v>
       </c>
@@ -1802,7 +1829,7 @@
         <f t="shared" si="0"/>
         <v>0.5387928724043054</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <f t="shared" si="0"/>
         <v>0.53154134624730254</v>
       </c>
@@ -1822,16 +1849,16 @@
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G16" t="s">
@@ -1843,7 +1870,7 @@
       <c r="I16" t="s">
         <v>121</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K16" t="s">
@@ -1860,16 +1887,16 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>0.61567593321416303</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>0.55612791076684898</v>
       </c>
       <c r="E17">
         <v>0.495356793983039</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>0.61701761368624497</v>
       </c>
       <c r="G17">
@@ -1881,7 +1908,7 @@
       <c r="I17">
         <v>0.63905980119971995</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>0.65219494444680204</v>
       </c>
       <c r="K17">
@@ -1898,16 +1925,16 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>0.64674500709615101</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>0.71942320756480604</v>
       </c>
       <c r="E18">
         <v>0.458977224674184</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>0.61972445076148897</v>
       </c>
       <c r="G18">
@@ -1919,7 +1946,7 @@
       <c r="I18">
         <v>0.73218324293868497</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>0.67057593727843201</v>
       </c>
       <c r="K18">
@@ -1936,16 +1963,16 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>0.52858531068849801</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>0.54663141748780697</v>
       </c>
       <c r="E19">
         <v>0.46238614677019901</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>0.48039066840821298</v>
       </c>
       <c r="G19">
@@ -1957,7 +1984,7 @@
       <c r="I19">
         <v>0.53402157224872404</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>0.55460579238599605</v>
       </c>
       <c r="K19">
@@ -1974,16 +2001,16 @@
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>0.49867900077737798</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>0.40299563171366598</v>
       </c>
       <c r="E20">
         <v>0.54556149497506501</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>0.38309099717045297</v>
       </c>
       <c r="G20">
@@ -1995,7 +2022,7 @@
       <c r="I20">
         <v>0.51627758783565902</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>0.50713568204772796</v>
       </c>
       <c r="K20">
@@ -2012,16 +2039,16 @@
       <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>0.67081468488238505</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>0.63857142661556798</v>
       </c>
       <c r="E21">
         <v>0.47444194700680897</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>0.65275325486090197</v>
       </c>
       <c r="G21">
@@ -2033,7 +2060,7 @@
       <c r="I21">
         <v>0.65843798800269204</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>0.58232747954709696</v>
       </c>
       <c r="K21">
@@ -2050,16 +2077,16 @@
       <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>0.62868067757616797</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>0.54419244054494997</v>
       </c>
       <c r="E22">
         <v>0.26954840336852298</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>0.30871460453726701</v>
       </c>
       <c r="G22">
@@ -2071,7 +2098,7 @@
       <c r="I22">
         <v>0.413306376299372</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>0.47028019511672903</v>
       </c>
       <c r="K22">
@@ -2088,16 +2115,16 @@
       <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>0.56860820832776904</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>0.54272215953464198</v>
       </c>
       <c r="E23">
         <v>0.479688307527188</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>0.60637231793707502</v>
       </c>
       <c r="G23">
@@ -2109,7 +2136,7 @@
       <c r="I23">
         <v>0.42380223021805202</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>0.46228493829051098</v>
       </c>
       <c r="K23">
@@ -2126,13 +2153,13 @@
       <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>0.51396924178164805</v>
       </c>
       <c r="E24">
         <v>0.57117253108360699</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>0.53378190231832101</v>
       </c>
       <c r="G24">
@@ -2144,7 +2171,7 @@
       <c r="I24">
         <v>0.58957013508190403</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>0.60839063512161295</v>
       </c>
       <c r="K24">
@@ -2161,16 +2188,16 @@
       <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>0.522555489096035</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>0.271843793073133</v>
       </c>
       <c r="E25">
         <v>0.49722631199366801</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>0.41854923837218999</v>
       </c>
       <c r="G25">
@@ -2182,7 +2209,7 @@
       <c r="I25">
         <v>0.553853023668893</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>0.57912104304812395</v>
       </c>
       <c r="K25">
@@ -2199,16 +2226,16 @@
       <c r="B26" t="s">
         <v>16</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>0.68897101137837302</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>0.61547950049965605</v>
       </c>
       <c r="E26">
         <v>0.50821149421914502</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>0.64885611760820305</v>
       </c>
       <c r="G26">
@@ -2220,7 +2247,7 @@
       <c r="I26">
         <v>0.69197629670895</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>0.68154129071405201</v>
       </c>
       <c r="K26">
@@ -2237,13 +2264,13 @@
       <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>0.61076658544047102</v>
       </c>
       <c r="E27">
         <v>0.61073709846881097</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>0.58216023863292099</v>
       </c>
       <c r="G27">
@@ -2255,7 +2282,7 @@
       <c r="I27">
         <v>0.57428544753119504</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>0.49383119783106399</v>
       </c>
       <c r="K27">
@@ -2272,16 +2299,16 @@
       <c r="B28" t="s">
         <v>17</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>0.50417939063880202</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>0.58326247687620303</v>
       </c>
       <c r="E28">
         <v>0.58262762665193202</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>0.50469877972827004</v>
       </c>
       <c r="G28">
@@ -2293,7 +2320,7 @@
       <c r="I28">
         <v>0.51199304630814901</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>0.49268245510558401</v>
       </c>
       <c r="K28">
@@ -2310,16 +2337,16 @@
       <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>0.55006115584257298</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>0.48846088247041403</v>
       </c>
       <c r="E29">
         <v>0.32112810025647598</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>0.49930133217580402</v>
       </c>
       <c r="G29">
@@ -2331,7 +2358,7 @@
       <c r="I29">
         <v>0.52317097814485702</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>0.507612216489987</v>
       </c>
       <c r="K29">
@@ -2345,16 +2372,16 @@
       <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>0.56371962546869203</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>0.27114861956663799</v>
       </c>
       <c r="E30">
         <v>0.55750413874650395</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>0.52456498721899802</v>
       </c>
       <c r="G30">
@@ -2366,7 +2393,7 @@
       <c r="I30">
         <v>0.27728410606251103</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>0.25924098493212899</v>
       </c>
       <c r="K30">
@@ -2383,13 +2410,13 @@
       <c r="B31" t="s">
         <v>23</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>0.62772775851255103</v>
       </c>
       <c r="E31">
         <v>0.214773071629657</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>0.27392786268501701</v>
       </c>
       <c r="G31">
@@ -2401,7 +2428,7 @@
       <c r="I31">
         <v>0.62999934433117599</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>0.56413282813626198</v>
       </c>
       <c r="K31">
@@ -2418,16 +2445,16 @@
       <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>0.48835548929852002</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>0.25282566007018897</v>
       </c>
       <c r="E32">
         <v>0.279462758668581</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>0.52789109413052604</v>
       </c>
       <c r="G32">
@@ -2439,7 +2466,7 @@
       <c r="I32">
         <v>0.423134596210198</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>0.61177958648431896</v>
       </c>
       <c r="K32">
@@ -2453,16 +2480,16 @@
       <c r="B33" t="s">
         <v>19</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>0.433178813225224</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>0.415407405465409</v>
       </c>
       <c r="E33">
         <v>0.47120733418170502</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>0.44889890725799397</v>
       </c>
       <c r="G33">
@@ -2474,7 +2501,7 @@
       <c r="I33">
         <v>0.51331919736025799</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>0.46650541205444701</v>
       </c>
       <c r="K33">
@@ -2485,11 +2512,11 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C34">
+      <c r="C34" s="1">
         <f>AVERAGE(C17:C33)</f>
         <v>0.56459660154580327</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <f t="shared" ref="D34:L34" si="1">AVERAGE(D17:D33)</f>
         <v>0.4984546860508321</v>
       </c>
@@ -2497,7 +2524,7 @@
         <f t="shared" si="1"/>
         <v>0.45882416377677016</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <f t="shared" si="1"/>
         <v>0.50768790396999353</v>
       </c>
@@ -2513,7 +2540,7 @@
         <f t="shared" si="1"/>
         <v>0.54151029236182324</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1">
         <f t="shared" si="1"/>
         <v>0.53907309523711022</v>
       </c>
@@ -2533,16 +2560,16 @@
       <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G36" t="s">
@@ -2554,7 +2581,7 @@
       <c r="I36" t="s">
         <v>121</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K36" t="s">
@@ -2571,16 +2598,16 @@
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>0.61567593321416303</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>0.55612791076684898</v>
       </c>
       <c r="E37">
         <v>0.495356793983039</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>0.61701761368624497</v>
       </c>
       <c r="G37">
@@ -2592,7 +2619,7 @@
       <c r="I37">
         <v>0.63905980119971995</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <v>0.65219494444680204</v>
       </c>
       <c r="K37">
@@ -2609,16 +2636,16 @@
       <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>0.64674500709615101</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>0.71942320756480604</v>
       </c>
       <c r="E38">
         <v>0.458977224674184</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>0.61972445076148897</v>
       </c>
       <c r="G38">
@@ -2630,7 +2657,7 @@
       <c r="I38">
         <v>0.73218324293868497</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="1">
         <v>0.67057593727843201</v>
       </c>
       <c r="K38">
@@ -2647,16 +2674,16 @@
       <c r="B39" t="s">
         <v>25</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>0.50629689684382395</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>0.55059975297294494</v>
       </c>
       <c r="E39">
         <v>0.56443114457826904</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>0.56624661349676297</v>
       </c>
       <c r="G39">
@@ -2668,7 +2695,7 @@
       <c r="I39">
         <v>0.52578174088462803</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="1">
         <v>0.474155423914146</v>
       </c>
     </row>
@@ -2679,16 +2706,16 @@
       <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>0.52858531068849801</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>0.54663141748780697</v>
       </c>
       <c r="E40">
         <v>0.46238614677019901</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>0.48039066840821298</v>
       </c>
       <c r="G40">
@@ -2700,7 +2727,7 @@
       <c r="I40">
         <v>0.53402157224872404</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="1">
         <v>0.55460579238599605</v>
       </c>
       <c r="K40">
@@ -2717,10 +2744,10 @@
       <c r="B41" t="s">
         <v>26</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>0.51923203748987801</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>0.25339263363051001</v>
       </c>
       <c r="E41">
@@ -2735,7 +2762,7 @@
       <c r="I41">
         <v>0.54488262059877701</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="1">
         <v>0.38786061007771999</v>
       </c>
       <c r="K41">
@@ -2749,16 +2776,16 @@
       <c r="B42" t="s">
         <v>11</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>0.49867900077737798</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>0.40299563171366598</v>
       </c>
       <c r="E42">
         <v>0.54556149497506501</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>0.38309099717045297</v>
       </c>
       <c r="G42">
@@ -2770,7 +2797,7 @@
       <c r="I42">
         <v>0.51627758783565902</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="1">
         <v>0.50713568204772796</v>
       </c>
       <c r="K42">
@@ -2787,16 +2814,16 @@
       <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>0.67081468488238505</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>0.63857142661556798</v>
       </c>
       <c r="E43">
         <v>0.47444194700680897</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>0.65275325486090197</v>
       </c>
       <c r="G43">
@@ -2808,7 +2835,7 @@
       <c r="I43">
         <v>0.65843798800269204</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="1">
         <v>0.58232747954709696</v>
       </c>
       <c r="K43">
@@ -2825,16 +2852,16 @@
       <c r="B44" t="s">
         <v>13</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>0.62868067757616797</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>0.54419244054494997</v>
       </c>
       <c r="E44">
         <v>0.26954840336852298</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>0.30871460453726701</v>
       </c>
       <c r="G44">
@@ -2846,7 +2873,7 @@
       <c r="I44">
         <v>0.413306376299372</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="1">
         <v>0.47028019511672903</v>
       </c>
       <c r="K44">
@@ -2863,16 +2890,16 @@
       <c r="B45" t="s">
         <v>14</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>0.56860820832776904</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>0.54272215953464198</v>
       </c>
       <c r="E45">
         <v>0.479688307527188</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>0.60637231793707502</v>
       </c>
       <c r="G45">
@@ -2884,7 +2911,7 @@
       <c r="I45">
         <v>0.42380223021805202</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="1">
         <v>0.46228493829051098</v>
       </c>
       <c r="K45">
@@ -2901,13 +2928,13 @@
       <c r="B46" t="s">
         <v>20</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>0.51396924178164805</v>
       </c>
       <c r="E46">
         <v>0.57117253108360699</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>0.53378190231832101</v>
       </c>
       <c r="G46">
@@ -2919,7 +2946,7 @@
       <c r="I46">
         <v>0.58957013508190403</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="1">
         <v>0.60839063512161295</v>
       </c>
       <c r="K46">
@@ -2936,16 +2963,16 @@
       <c r="B47" t="s">
         <v>15</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>0.522555489096035</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>0.271843793073133</v>
       </c>
       <c r="E47">
         <v>0.49722631199366801</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>0.41854923837218999</v>
       </c>
       <c r="G47">
@@ -2957,7 +2984,7 @@
       <c r="I47">
         <v>0.553853023668893</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1">
         <v>0.57912104304812395</v>
       </c>
       <c r="K47">
@@ -2974,16 +3001,16 @@
       <c r="B48" t="s">
         <v>16</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>0.68897101137837302</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>0.61547950049965605</v>
       </c>
       <c r="E48">
         <v>0.50821149421914502</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>0.64885611760820305</v>
       </c>
       <c r="G48">
@@ -2995,7 +3022,7 @@
       <c r="I48">
         <v>0.69197629670895</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="1">
         <v>0.68154129071405201</v>
       </c>
       <c r="K48">
@@ -3012,13 +3039,13 @@
       <c r="B49" t="s">
         <v>21</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>0.61076658544047102</v>
       </c>
       <c r="E49">
         <v>0.61073709846881097</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>0.58216023863292099</v>
       </c>
       <c r="G49">
@@ -3030,7 +3057,7 @@
       <c r="I49">
         <v>0.57428544753119504</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="1">
         <v>0.49383119783106399</v>
       </c>
       <c r="K49">
@@ -3047,16 +3074,16 @@
       <c r="B50" t="s">
         <v>17</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>0.50417939063880202</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>0.58326247687620303</v>
       </c>
       <c r="E50">
         <v>0.58262762665193202</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>0.50469877972827004</v>
       </c>
       <c r="G50">
@@ -3068,7 +3095,7 @@
       <c r="I50">
         <v>0.51199304630814901</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="1">
         <v>0.49268245510558401</v>
       </c>
       <c r="K50">
@@ -3085,16 +3112,16 @@
       <c r="B51" t="s">
         <v>22</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>0.55006115584257298</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>0.48846088247041403</v>
       </c>
       <c r="E51">
         <v>0.32112810025647598</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>0.49930133217580402</v>
       </c>
       <c r="G51">
@@ -3106,7 +3133,7 @@
       <c r="I51">
         <v>0.52317097814485702</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="1">
         <v>0.507612216489987</v>
       </c>
       <c r="K51">
@@ -3120,16 +3147,16 @@
       <c r="B52" t="s">
         <v>18</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>0.56371962546869203</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>0.27114861956663799</v>
       </c>
       <c r="E52">
         <v>0.55750413874650395</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>0.52456498721899802</v>
       </c>
       <c r="G52">
@@ -3141,7 +3168,7 @@
       <c r="I52">
         <v>0.27728410606251103</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="1">
         <v>0.25924098493212899</v>
       </c>
       <c r="K52">
@@ -3158,13 +3185,13 @@
       <c r="B53" t="s">
         <v>23</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>0.62772775851255103</v>
       </c>
       <c r="E53">
         <v>0.214773071629657</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>0.27392786268501701</v>
       </c>
       <c r="G53">
@@ -3176,7 +3203,7 @@
       <c r="I53">
         <v>0.62999934433117599</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="1">
         <v>0.56413282813626198</v>
       </c>
       <c r="K53">
@@ -3193,13 +3220,13 @@
       <c r="B54" t="s">
         <v>27</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>0.58043146379222599</v>
       </c>
       <c r="E54">
         <v>0.43320806286675101</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>0.58391928315252695</v>
       </c>
       <c r="H54">
@@ -3208,7 +3235,7 @@
       <c r="I54">
         <v>0.53968591814155698</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="1">
         <v>0.51772864477045299</v>
       </c>
       <c r="K54">
@@ -3225,16 +3252,16 @@
       <c r="B55" t="s">
         <v>24</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>0.48835548929852002</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>0.25282566007018897</v>
       </c>
       <c r="E55">
         <v>0.279462758668581</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>0.52789109413052604</v>
       </c>
       <c r="G55">
@@ -3246,7 +3273,7 @@
       <c r="I55">
         <v>0.423134596210198</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="1">
         <v>0.61177958648431896</v>
       </c>
       <c r="K55">
@@ -3260,7 +3287,7 @@
       <c r="B56" t="s">
         <v>28</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>0.493330079460435</v>
       </c>
       <c r="E56">
@@ -3275,7 +3302,7 @@
       <c r="I56">
         <v>0.523300684394847</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="1">
         <v>0.251700682991084</v>
       </c>
       <c r="K56">
@@ -3292,16 +3319,16 @@
       <c r="B57" t="s">
         <v>19</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>0.433178813225224</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>0.415407405465409</v>
       </c>
       <c r="E57">
         <v>0.47120733418170502</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>0.44889890725799397</v>
       </c>
       <c r="G57">
@@ -3313,7 +3340,7 @@
       <c r="I57">
         <v>0.51331919736025799</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="1">
         <v>0.46650541205444701</v>
       </c>
       <c r="K57">
@@ -3330,16 +3357,16 @@
       <c r="B58" t="s">
         <v>29</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>0.27664980425820401</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>0.472784633135931</v>
       </c>
       <c r="E58">
         <v>0.43775328142273701</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>0.28034189260355902</v>
       </c>
       <c r="G58">
@@ -3351,16 +3378,16 @@
       <c r="I58">
         <v>0.25877148894729901</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="1">
         <v>0.23905299641811101</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C59">
+      <c r="C59" s="1">
         <f>AVERAGE(C37:C58)</f>
         <v>0.54330885269416285</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <f t="shared" ref="D59:L59" si="2">AVERAGE(D37:D58)</f>
         <v>0.48631096169454818</v>
       </c>
@@ -3368,7 +3395,7 @@
         <f t="shared" si="2"/>
         <v>0.45567265387275097</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <f t="shared" si="2"/>
         <v>0.50306010783713684</v>
       </c>
@@ -3384,7 +3411,7 @@
         <f t="shared" si="2"/>
         <v>0.52718624650536838</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="1">
         <f t="shared" si="2"/>
         <v>0.5015791353273813</v>
       </c>
@@ -3404,16 +3431,16 @@
       <c r="B61" t="s">
         <v>1</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G61" t="s">
@@ -3425,7 +3452,7 @@
       <c r="I61" t="s">
         <v>121</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K61" t="s">
@@ -3442,16 +3469,16 @@
       <c r="B62" t="s">
         <v>8</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>0.61567593321416303</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>0.55612791076684898</v>
       </c>
       <c r="E62">
         <v>0.495356793983039</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <v>0.61701761368624497</v>
       </c>
       <c r="G62">
@@ -3463,7 +3490,7 @@
       <c r="I62">
         <v>0.63905980119971995</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="1">
         <v>0.65219494444680204</v>
       </c>
       <c r="K62">
@@ -3480,7 +3507,7 @@
       <c r="B63" t="s">
         <v>30</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>0.82391369884747001</v>
       </c>
       <c r="E63">
@@ -3495,7 +3522,7 @@
       <c r="I63">
         <v>0.762332016402538</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="1">
         <v>0.81627911847940304</v>
       </c>
       <c r="K63">
@@ -3509,16 +3536,16 @@
       <c r="B64" t="s">
         <v>9</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>0.64674500709615101</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2">
         <v>0.71942320756480604</v>
       </c>
       <c r="E64">
         <v>0.458977224674184</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="1">
         <v>0.61972445076148897</v>
       </c>
       <c r="G64">
@@ -3530,7 +3557,7 @@
       <c r="I64">
         <v>0.73218324293868497</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="1">
         <v>0.67057593727843201</v>
       </c>
       <c r="K64">
@@ -3547,16 +3574,16 @@
       <c r="B65" t="s">
         <v>25</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>0.50629689684382395</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>0.55059975297294494</v>
       </c>
       <c r="E65">
         <v>0.56443114457826904</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>0.56624661349676297</v>
       </c>
       <c r="G65">
@@ -3568,7 +3595,7 @@
       <c r="I65">
         <v>0.52578174088462803</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="1">
         <v>0.474155423914146</v>
       </c>
     </row>
@@ -3579,16 +3606,16 @@
       <c r="B66" t="s">
         <v>10</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>0.52858531068849801</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>0.54663141748780697</v>
       </c>
       <c r="E66">
         <v>0.46238614677019901</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>0.48039066840821298</v>
       </c>
       <c r="G66">
@@ -3600,7 +3627,7 @@
       <c r="I66">
         <v>0.53402157224872404</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="1">
         <v>0.55460579238599605</v>
       </c>
       <c r="K66">
@@ -3617,10 +3644,10 @@
       <c r="B67" t="s">
         <v>26</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>0.51923203748987801</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <v>0.25339263363051001</v>
       </c>
       <c r="E67">
@@ -3635,7 +3662,7 @@
       <c r="I67">
         <v>0.54488262059877701</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="1">
         <v>0.38786061007771999</v>
       </c>
       <c r="K67">
@@ -3649,16 +3676,16 @@
       <c r="B68" t="s">
         <v>11</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>0.49867900077737798</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>0.40299563171366598</v>
       </c>
       <c r="E68">
         <v>0.54556149497506501</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <v>0.38309099717045297</v>
       </c>
       <c r="G68">
@@ -3670,7 +3697,7 @@
       <c r="I68">
         <v>0.51627758783565902</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="1">
         <v>0.50713568204772796</v>
       </c>
       <c r="K68">
@@ -3687,16 +3714,16 @@
       <c r="B69" t="s">
         <v>12</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>0.67081468488238505</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2">
         <v>0.63857142661556798</v>
       </c>
       <c r="E69">
         <v>0.47444194700680897</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="1">
         <v>0.65275325486090197</v>
       </c>
       <c r="G69">
@@ -3708,7 +3735,7 @@
       <c r="I69">
         <v>0.65843798800269204</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="1">
         <v>0.58232747954709696</v>
       </c>
       <c r="K69">
@@ -3725,16 +3752,16 @@
       <c r="B70" t="s">
         <v>13</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>0.62868067757616797</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <v>0.54419244054494997</v>
       </c>
       <c r="E70">
         <v>0.26954840336852298</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="1">
         <v>0.30871460453726701</v>
       </c>
       <c r="G70">
@@ -3746,7 +3773,7 @@
       <c r="I70">
         <v>0.413306376299372</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="1">
         <v>0.47028019511672903</v>
       </c>
       <c r="K70">
@@ -3763,16 +3790,16 @@
       <c r="B71" t="s">
         <v>14</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>0.56860820832776904</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="2">
         <v>0.54272215953464198</v>
       </c>
       <c r="E71">
         <v>0.479688307527188</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <v>0.60637231793707502</v>
       </c>
       <c r="G71">
@@ -3784,7 +3811,7 @@
       <c r="I71">
         <v>0.42380223021805202</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="1">
         <v>0.46228493829051098</v>
       </c>
       <c r="K71">
@@ -3801,13 +3828,13 @@
       <c r="B72" t="s">
         <v>20</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>0.51396924178164805</v>
       </c>
       <c r="E72">
         <v>0.57117253108360699</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>0.53378190231832101</v>
       </c>
       <c r="G72">
@@ -3819,7 +3846,7 @@
       <c r="I72">
         <v>0.58957013508190403</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="1">
         <v>0.60839063512161295</v>
       </c>
       <c r="K72">
@@ -3836,16 +3863,16 @@
       <c r="B73" t="s">
         <v>15</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>0.522555489096035</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="2">
         <v>0.271843793073133</v>
       </c>
       <c r="E73">
         <v>0.49722631199366801</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <v>0.41854923837218999</v>
       </c>
       <c r="G73">
@@ -3857,7 +3884,7 @@
       <c r="I73">
         <v>0.553853023668893</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="1">
         <v>0.57912104304812395</v>
       </c>
       <c r="K73">
@@ -3874,16 +3901,16 @@
       <c r="B74" t="s">
         <v>16</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>0.68897101137837302</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="2">
         <v>0.61547950049965605</v>
       </c>
       <c r="E74">
         <v>0.50821149421914502</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="1">
         <v>0.64885611760820305</v>
       </c>
       <c r="G74">
@@ -3895,7 +3922,7 @@
       <c r="I74">
         <v>0.69197629670895</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="1">
         <v>0.68154129071405201</v>
       </c>
       <c r="K74">
@@ -3912,13 +3939,13 @@
       <c r="B75" t="s">
         <v>21</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>0.61076658544047102</v>
       </c>
       <c r="E75">
         <v>0.61073709846881097</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="1">
         <v>0.58216023863292099</v>
       </c>
       <c r="G75">
@@ -3930,7 +3957,7 @@
       <c r="I75">
         <v>0.57428544753119504</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="1">
         <v>0.49383119783106399</v>
       </c>
       <c r="K75">
@@ -3947,16 +3974,16 @@
       <c r="B76" t="s">
         <v>17</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>0.50417939063880202</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <v>0.58326247687620303</v>
       </c>
       <c r="E76">
         <v>0.58262762665193202</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="1">
         <v>0.50469877972827004</v>
       </c>
       <c r="G76">
@@ -3968,7 +3995,7 @@
       <c r="I76">
         <v>0.51199304630814901</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="1">
         <v>0.49268245510558401</v>
       </c>
       <c r="K76">
@@ -3985,16 +4012,16 @@
       <c r="B77" t="s">
         <v>22</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>0.55006115584257298</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="2">
         <v>0.48846088247041403</v>
       </c>
       <c r="E77">
         <v>0.32112810025647598</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="1">
         <v>0.49930133217580402</v>
       </c>
       <c r="G77">
@@ -4006,7 +4033,7 @@
       <c r="I77">
         <v>0.52317097814485702</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="1">
         <v>0.507612216489987</v>
       </c>
       <c r="K77">
@@ -4020,16 +4047,16 @@
       <c r="B78" t="s">
         <v>31</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>0.31085469777597402</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="2">
         <v>0.490082443789432</v>
       </c>
       <c r="E78">
         <v>0.39439709658369998</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="1">
         <v>0.49198430518596997</v>
       </c>
       <c r="G78">
@@ -4038,7 +4065,7 @@
       <c r="I78">
         <v>0.46925267064388199</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="1">
         <v>0.55526109538414203</v>
       </c>
     </row>
@@ -4049,10 +4076,10 @@
       <c r="B79" t="s">
         <v>32</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>0.49176866986878898</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="2">
         <v>0.236787365994098</v>
       </c>
       <c r="E79">
@@ -4067,7 +4094,7 @@
       <c r="I79">
         <v>0.245628253254325</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="1">
         <v>0.52905950541466895</v>
       </c>
     </row>
@@ -4078,16 +4105,16 @@
       <c r="B80" t="s">
         <v>18</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>0.56371962546869203</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="2">
         <v>0.27114861956663799</v>
       </c>
       <c r="E80">
         <v>0.55750413874650395</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="1">
         <v>0.52456498721899802</v>
       </c>
       <c r="G80">
@@ -4099,7 +4126,7 @@
       <c r="I80">
         <v>0.27728410606251103</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="1">
         <v>0.25924098493212899</v>
       </c>
       <c r="K80">
@@ -4116,13 +4143,13 @@
       <c r="B81" t="s">
         <v>23</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="2">
         <v>0.62772775851255103</v>
       </c>
       <c r="E81">
         <v>0.214773071629657</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="1">
         <v>0.27392786268501701</v>
       </c>
       <c r="G81">
@@ -4134,7 +4161,7 @@
       <c r="I81">
         <v>0.62999934433117599</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="1">
         <v>0.56413282813626198</v>
       </c>
       <c r="K81">
@@ -4151,10 +4178,10 @@
       <c r="B82" t="s">
         <v>33</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>0.1547920155177</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="2">
         <v>0.30618632070885698</v>
       </c>
       <c r="E82">
@@ -4166,7 +4193,7 @@
       <c r="I82">
         <v>0.224359127031862</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="1">
         <v>0.51112986392730098</v>
       </c>
       <c r="K82">
@@ -4180,13 +4207,13 @@
       <c r="B83" t="s">
         <v>27</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>0.58043146379222599</v>
       </c>
       <c r="E83">
         <v>0.43320806286675101</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="1">
         <v>0.58391928315252695</v>
       </c>
       <c r="H83">
@@ -4195,7 +4222,7 @@
       <c r="I83">
         <v>0.53968591814155698</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="1">
         <v>0.51772864477045299</v>
       </c>
       <c r="K83">
@@ -4212,16 +4239,16 @@
       <c r="B84" t="s">
         <v>24</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>0.48835548929852002</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="2">
         <v>0.25282566007018897</v>
       </c>
       <c r="E84">
         <v>0.279462758668581</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="1">
         <v>0.52789109413052604</v>
       </c>
       <c r="G84">
@@ -4233,7 +4260,7 @@
       <c r="I84">
         <v>0.423134596210198</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="1">
         <v>0.61177958648431896</v>
       </c>
       <c r="K84">
@@ -4247,7 +4274,7 @@
       <c r="B85" t="s">
         <v>28</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>0.493330079460435</v>
       </c>
       <c r="E85">
@@ -4262,7 +4289,7 @@
       <c r="I85">
         <v>0.523300684394847</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="1">
         <v>0.251700682991084</v>
       </c>
       <c r="K85">
@@ -4279,13 +4306,13 @@
       <c r="B86" t="s">
         <v>34</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>0.24003889116906299</v>
       </c>
       <c r="E86">
         <v>0.27476902069869202</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="1">
         <v>0.25360417846325201</v>
       </c>
       <c r="H86">
@@ -4294,7 +4321,7 @@
       <c r="I86">
         <v>0.28171719498333198</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="1">
         <v>0.43112551285177497</v>
       </c>
       <c r="K86">
@@ -4308,16 +4335,16 @@
       <c r="B87" t="s">
         <v>19</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>0.433178813225224</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="2">
         <v>0.415407405465409</v>
       </c>
       <c r="E87">
         <v>0.47120733418170502</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="1">
         <v>0.44889890725799397</v>
       </c>
       <c r="G87">
@@ -4329,7 +4356,7 @@
       <c r="I87">
         <v>0.51331919736025799</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="1">
         <v>0.46650541205444701</v>
       </c>
       <c r="K87">
@@ -4346,16 +4373,16 @@
       <c r="B88" t="s">
         <v>35</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>0.496904120995045</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="2">
         <v>0.48875360227777898</v>
       </c>
       <c r="E88">
         <v>0.50103050150891104</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="1">
         <v>0.57700071703417799</v>
       </c>
       <c r="G88">
@@ -4364,7 +4391,7 @@
       <c r="I88">
         <v>0.57444859766676104</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="1">
         <v>0.25091318118515199</v>
       </c>
     </row>
@@ -4375,16 +4402,16 @@
       <c r="B89" t="s">
         <v>29</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>0.27664980425820401</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="2">
         <v>0.472784633135931</v>
       </c>
       <c r="E89">
         <v>0.43775328142273701</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="1">
         <v>0.28034189260355902</v>
       </c>
       <c r="G89">
@@ -4396,16 +4423,16 @@
       <c r="I89">
         <v>0.25877148894729901</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="1">
         <v>0.23905299641811101</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C90">
+      <c r="C90" s="1">
         <f>AVERAGE(C62:C89)</f>
         <v>0.5158428889167207</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="2">
         <f t="shared" ref="D90:L90" si="3">AVERAGE(D62:D89)</f>
         <v>0.46706395651236504</v>
       </c>
@@ -4413,7 +4440,7 @@
         <f t="shared" si="3"/>
         <v>0.4430054169992394</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="1">
         <f t="shared" si="3"/>
         <v>0.49494745032287563</v>
       </c>
@@ -4429,7 +4456,7 @@
         <f t="shared" si="3"/>
         <v>0.50556554582502877</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="1">
         <f t="shared" si="3"/>
         <v>0.50458961623017251</v>
       </c>
@@ -4449,16 +4476,16 @@
       <c r="B92" t="s">
         <v>8</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>0.61567593321416303</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="2">
         <v>0.55612791076684898</v>
       </c>
       <c r="E92">
         <v>0.495356793983039</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="1">
         <v>0.61701761368624497</v>
       </c>
       <c r="G92">
@@ -4470,7 +4497,7 @@
       <c r="I92">
         <v>0.63905980119971995</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="1">
         <v>0.65219494444680204</v>
       </c>
       <c r="K92">
@@ -4487,10 +4514,10 @@
       <c r="B93" t="s">
         <v>36</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>0.61909398142208205</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="2">
         <v>0.40652930572881002</v>
       </c>
       <c r="E93">
@@ -4513,7 +4540,7 @@
       <c r="B94" t="s">
         <v>30</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>0.82391369884747001</v>
       </c>
       <c r="E94">
@@ -4528,7 +4555,7 @@
       <c r="I94">
         <v>0.762332016402538</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="1">
         <v>0.81627911847940304</v>
       </c>
       <c r="K94">
@@ -4542,16 +4569,16 @@
       <c r="B95" t="s">
         <v>9</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>0.64674500709615101</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="2">
         <v>0.71942320756480604</v>
       </c>
       <c r="E95">
         <v>0.458977224674184</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="1">
         <v>0.61972445076148897</v>
       </c>
       <c r="G95">
@@ -4563,7 +4590,7 @@
       <c r="I95">
         <v>0.73218324293868497</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="1">
         <v>0.67057593727843201</v>
       </c>
       <c r="K95">
@@ -4580,10 +4607,10 @@
       <c r="B96" t="s">
         <v>37</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>0.46428219792362502</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="2">
         <v>0.21106261847754701</v>
       </c>
       <c r="E96">
@@ -4606,10 +4633,10 @@
       <c r="B97" t="s">
         <v>38</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>0.26340531550068502</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="2">
         <v>0.380706148448547</v>
       </c>
       <c r="E97">
@@ -4632,16 +4659,16 @@
       <c r="B98" t="s">
         <v>25</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>0.50629689684382395</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="2">
         <v>0.55059975297294494</v>
       </c>
       <c r="E98">
         <v>0.56443114457826904</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="1">
         <v>0.56624661349676297</v>
       </c>
       <c r="G98">
@@ -4653,7 +4680,7 @@
       <c r="I98">
         <v>0.52578174088462803</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="1">
         <v>0.474155423914146</v>
       </c>
     </row>
@@ -4664,16 +4691,16 @@
       <c r="B99" t="s">
         <v>10</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>0.52858531068849801</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="2">
         <v>0.54663141748780697</v>
       </c>
       <c r="E99">
         <v>0.46238614677019901</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="1">
         <v>0.48039066840821298</v>
       </c>
       <c r="G99">
@@ -4685,7 +4712,7 @@
       <c r="I99">
         <v>0.53402157224872404</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="1">
         <v>0.55460579238599605</v>
       </c>
       <c r="K99">
@@ -4702,10 +4729,10 @@
       <c r="B100" t="s">
         <v>26</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>0.51923203748987801</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="2">
         <v>0.25339263363051001</v>
       </c>
       <c r="E100">
@@ -4720,7 +4747,7 @@
       <c r="I100">
         <v>0.54488262059877701</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="1">
         <v>0.38786061007771999</v>
       </c>
       <c r="K100">
@@ -4734,16 +4761,16 @@
       <c r="B101" t="s">
         <v>11</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>0.49867900077737798</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="2">
         <v>0.40299563171366598</v>
       </c>
       <c r="E101">
         <v>0.54556149497506501</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="1">
         <v>0.38309099717045297</v>
       </c>
       <c r="G101">
@@ -4755,7 +4782,7 @@
       <c r="I101">
         <v>0.51627758783565902</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="1">
         <v>0.50713568204772796</v>
       </c>
       <c r="K101">
@@ -4772,16 +4799,16 @@
       <c r="B102" t="s">
         <v>12</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>0.67081468488238505</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="2">
         <v>0.63857142661556798</v>
       </c>
       <c r="E102">
         <v>0.47444194700680897</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="1">
         <v>0.65275325486090197</v>
       </c>
       <c r="G102">
@@ -4793,7 +4820,7 @@
       <c r="I102">
         <v>0.65843798800269204</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="1">
         <v>0.58232747954709696</v>
       </c>
       <c r="K102">
@@ -4810,16 +4837,16 @@
       <c r="B103" t="s">
         <v>13</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>0.62868067757616797</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="2">
         <v>0.54419244054494997</v>
       </c>
       <c r="E103">
         <v>0.26954840336852298</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="1">
         <v>0.30871460453726701</v>
       </c>
       <c r="G103">
@@ -4831,7 +4858,7 @@
       <c r="I103">
         <v>0.413306376299372</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="1">
         <v>0.47028019511672903</v>
       </c>
       <c r="K103">
@@ -4848,16 +4875,16 @@
       <c r="B104" t="s">
         <v>14</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>0.56860820832776904</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="2">
         <v>0.54272215953464198</v>
       </c>
       <c r="E104">
         <v>0.479688307527188</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="1">
         <v>0.60637231793707502</v>
       </c>
       <c r="G104">
@@ -4869,7 +4896,7 @@
       <c r="I104">
         <v>0.42380223021805202</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="1">
         <v>0.46228493829051098</v>
       </c>
       <c r="K104">
@@ -4886,13 +4913,13 @@
       <c r="B105" t="s">
         <v>20</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>0.51396924178164805</v>
       </c>
       <c r="E105">
         <v>0.57117253108360699</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="1">
         <v>0.53378190231832101</v>
       </c>
       <c r="G105">
@@ -4904,7 +4931,7 @@
       <c r="I105">
         <v>0.58957013508190403</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="1">
         <v>0.60839063512161295</v>
       </c>
       <c r="K105">
@@ -4921,16 +4948,16 @@
       <c r="B106" t="s">
         <v>15</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>0.522555489096035</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="2">
         <v>0.271843793073133</v>
       </c>
       <c r="E106">
         <v>0.49722631199366801</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="1">
         <v>0.41854923837218999</v>
       </c>
       <c r="G106">
@@ -4942,7 +4969,7 @@
       <c r="I106">
         <v>0.553853023668893</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="1">
         <v>0.57912104304812395</v>
       </c>
       <c r="K106">
@@ -4959,16 +4986,16 @@
       <c r="B107" t="s">
         <v>16</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>0.68897101137837302</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="2">
         <v>0.61547950049965605</v>
       </c>
       <c r="E107">
         <v>0.50821149421914502</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="1">
         <v>0.64885611760820305</v>
       </c>
       <c r="G107">
@@ -4980,7 +5007,7 @@
       <c r="I107">
         <v>0.69197629670895</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="1">
         <v>0.68154129071405201</v>
       </c>
       <c r="K107">
@@ -4997,13 +5024,13 @@
       <c r="B108" t="s">
         <v>21</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>0.61076658544047102</v>
       </c>
       <c r="E108">
         <v>0.61073709846881097</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="1">
         <v>0.58216023863292099</v>
       </c>
       <c r="G108">
@@ -5015,7 +5042,7 @@
       <c r="I108">
         <v>0.57428544753119504</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="1">
         <v>0.49383119783106399</v>
       </c>
       <c r="K108">
@@ -5032,16 +5059,16 @@
       <c r="B109" t="s">
         <v>17</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>0.50417939063880202</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="2">
         <v>0.58326247687620303</v>
       </c>
       <c r="E109">
         <v>0.58262762665193202</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="1">
         <v>0.50469877972827004</v>
       </c>
       <c r="G109">
@@ -5053,7 +5080,7 @@
       <c r="I109">
         <v>0.51199304630814901</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="1">
         <v>0.49268245510558401</v>
       </c>
       <c r="K109">
@@ -5070,16 +5097,16 @@
       <c r="B110" t="s">
         <v>22</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>0.55006115584257298</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="2">
         <v>0.48846088247041403</v>
       </c>
       <c r="E110">
         <v>0.32112810025647598</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="1">
         <v>0.49930133217580402</v>
       </c>
       <c r="G110">
@@ -5091,7 +5118,7 @@
       <c r="I110">
         <v>0.52317097814485702</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="1">
         <v>0.507612216489987</v>
       </c>
       <c r="K110">
@@ -5105,16 +5132,16 @@
       <c r="B111" t="s">
         <v>31</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>0.31085469777597402</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="2">
         <v>0.490082443789432</v>
       </c>
       <c r="E111">
         <v>0.39439709658369998</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="1">
         <v>0.49198430518596997</v>
       </c>
       <c r="G111">
@@ -5123,7 +5150,7 @@
       <c r="I111">
         <v>0.46925267064388199</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="1">
         <v>0.55526109538414203</v>
       </c>
     </row>
@@ -5134,10 +5161,10 @@
       <c r="B112" t="s">
         <v>32</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>0.49176866986878898</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="2">
         <v>0.236787365994098</v>
       </c>
       <c r="E112">
@@ -5152,7 +5179,7 @@
       <c r="I112">
         <v>0.245628253254325</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="1">
         <v>0.52905950541466895</v>
       </c>
     </row>
@@ -5163,16 +5190,16 @@
       <c r="B113" t="s">
         <v>18</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>0.56371962546869203</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="2">
         <v>0.27114861956663799</v>
       </c>
       <c r="E113">
         <v>0.55750413874650395</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="1">
         <v>0.52456498721899802</v>
       </c>
       <c r="G113">
@@ -5184,7 +5211,7 @@
       <c r="I113">
         <v>0.27728410606251103</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="1">
         <v>0.25924098493212899</v>
       </c>
       <c r="K113">
@@ -5201,10 +5228,10 @@
       <c r="B114" t="s">
         <v>39</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>0.53609660739572695</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="2">
         <v>0.52226254667023297</v>
       </c>
       <c r="E114">
@@ -5216,7 +5243,7 @@
       <c r="I114">
         <v>0.29591432404287799</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="1">
         <v>0.289401199875093</v>
       </c>
     </row>
@@ -5227,13 +5254,13 @@
       <c r="B115" t="s">
         <v>23</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="2">
         <v>0.62772775851255103</v>
       </c>
       <c r="E115">
         <v>0.214773071629657</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="1">
         <v>0.27392786268501701</v>
       </c>
       <c r="G115">
@@ -5245,7 +5272,7 @@
       <c r="I115">
         <v>0.62999934433117599</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="1">
         <v>0.56413282813626198</v>
       </c>
       <c r="K115">
@@ -5262,10 +5289,10 @@
       <c r="B116" t="s">
         <v>33</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>0.1547920155177</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="2">
         <v>0.30618632070885698</v>
       </c>
       <c r="E116">
@@ -5277,7 +5304,7 @@
       <c r="I116">
         <v>0.224359127031862</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="1">
         <v>0.51112986392730098</v>
       </c>
       <c r="K116">
@@ -5291,13 +5318,13 @@
       <c r="B117" t="s">
         <v>27</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>0.58043146379222599</v>
       </c>
       <c r="E117">
         <v>0.43320806286675101</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="1">
         <v>0.58391928315252695</v>
       </c>
       <c r="H117">
@@ -5306,7 +5333,7 @@
       <c r="I117">
         <v>0.53968591814155698</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="1">
         <v>0.51772864477045299</v>
       </c>
       <c r="K117">
@@ -5323,16 +5350,16 @@
       <c r="B118" t="s">
         <v>24</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>0.48835548929852002</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="2">
         <v>0.25282566007018897</v>
       </c>
       <c r="E118">
         <v>0.279462758668581</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="1">
         <v>0.52789109413052604</v>
       </c>
       <c r="G118">
@@ -5344,7 +5371,7 @@
       <c r="I118">
         <v>0.423134596210198</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="1">
         <v>0.61177958648431896</v>
       </c>
       <c r="K118">
@@ -5358,10 +5385,10 @@
       <c r="B119" t="s">
         <v>40</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>0.31666643711628201</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="2">
         <v>0.27827370392596901</v>
       </c>
       <c r="E119">
@@ -5373,7 +5400,7 @@
       <c r="I119">
         <v>0.33423399337692999</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="1">
         <v>0.34014015267415698</v>
       </c>
     </row>
@@ -5384,7 +5411,7 @@
       <c r="B120" t="s">
         <v>28</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>0.493330079460435</v>
       </c>
       <c r="E120">
@@ -5399,7 +5426,7 @@
       <c r="I120">
         <v>0.523300684394847</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="1">
         <v>0.251700682991084</v>
       </c>
       <c r="K120">
@@ -5416,13 +5443,13 @@
       <c r="B121" t="s">
         <v>34</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>0.24003889116906299</v>
       </c>
       <c r="E121">
         <v>0.27476902069869202</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="1">
         <v>0.25360417846325201</v>
       </c>
       <c r="H121">
@@ -5431,7 +5458,7 @@
       <c r="I121">
         <v>0.28171719498333198</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="1">
         <v>0.43112551285177497</v>
       </c>
       <c r="K121">
@@ -5445,16 +5472,16 @@
       <c r="B122" t="s">
         <v>19</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>0.433178813225224</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="2">
         <v>0.415407405465409</v>
       </c>
       <c r="E122">
         <v>0.47120733418170502</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="1">
         <v>0.44889890725799397</v>
       </c>
       <c r="G122">
@@ -5466,7 +5493,7 @@
       <c r="I122">
         <v>0.51331919736025799</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="1">
         <v>0.46650541205444701</v>
       </c>
       <c r="K122">
@@ -5483,16 +5510,16 @@
       <c r="B123" t="s">
         <v>35</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>0.496904120995045</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="2">
         <v>0.48875360227777898</v>
       </c>
       <c r="E123">
         <v>0.50103050150891104</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="1">
         <v>0.57700071703417799</v>
       </c>
       <c r="G123">
@@ -5501,7 +5528,7 @@
       <c r="I123">
         <v>0.57444859766676104</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="1">
         <v>0.25091318118515199</v>
       </c>
     </row>
@@ -5512,16 +5539,16 @@
       <c r="B124" t="s">
         <v>29</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>0.27664980425820401</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="2">
         <v>0.472784633135931</v>
       </c>
       <c r="E124">
         <v>0.43775328142273701</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="1">
         <v>0.28034189260355902</v>
       </c>
       <c r="G124">
@@ -5533,7 +5560,7 @@
       <c r="I124">
         <v>0.25877148894729901</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="1">
         <v>0.23905299641811101</v>
       </c>
     </row>
@@ -5544,10 +5571,10 @@
       <c r="B125" t="s">
         <v>41</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="2">
         <v>0.39671376323343699</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="1">
         <v>0.38410103842765903</v>
       </c>
       <c r="H125">
@@ -5567,16 +5594,16 @@
       <c r="B126" t="s">
         <v>8</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>0.61567593321416303</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="2">
         <v>0.55612791076684898</v>
       </c>
       <c r="E126">
         <v>0.495356793983039</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="1">
         <v>0.61701761368624497</v>
       </c>
       <c r="G126">
@@ -5588,7 +5615,7 @@
       <c r="I126">
         <v>0.63905980119971995</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="1">
         <v>0.65219494444680204</v>
       </c>
       <c r="K126">
@@ -5605,10 +5632,10 @@
       <c r="B127" t="s">
         <v>36</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>0.61909398142208205</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="2">
         <v>0.40652930572881002</v>
       </c>
       <c r="E127">
@@ -5631,7 +5658,7 @@
       <c r="B128" t="s">
         <v>30</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>0.82391369884747001</v>
       </c>
       <c r="E128">
@@ -5646,7 +5673,7 @@
       <c r="I128">
         <v>0.762332016402538</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="1">
         <v>0.81627911847940304</v>
       </c>
       <c r="K128">
@@ -5660,16 +5687,16 @@
       <c r="B129" t="s">
         <v>9</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>0.64674500709615101</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="2">
         <v>0.71942320756480604</v>
       </c>
       <c r="E129">
         <v>0.458977224674184</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="1">
         <v>0.61972445076148897</v>
       </c>
       <c r="G129">
@@ -5681,7 +5708,7 @@
       <c r="I129">
         <v>0.73218324293868497</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="1">
         <v>0.67057593727843201</v>
       </c>
       <c r="K129">
@@ -5698,10 +5725,10 @@
       <c r="B130" t="s">
         <v>37</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>0.46428219792362502</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="2">
         <v>0.21106261847754701</v>
       </c>
       <c r="E130">
@@ -5724,10 +5751,10 @@
       <c r="B131" t="s">
         <v>38</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>0.26340531550068502</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="2">
         <v>0.380706148448547</v>
       </c>
       <c r="E131">
@@ -5750,16 +5777,16 @@
       <c r="B132" t="s">
         <v>25</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="1">
         <v>0.50629689684382395</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="2">
         <v>0.55059975297294494</v>
       </c>
       <c r="E132">
         <v>0.56443114457826904</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="1">
         <v>0.56624661349676297</v>
       </c>
       <c r="G132">
@@ -5771,7 +5798,7 @@
       <c r="I132">
         <v>0.52578174088462803</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="1">
         <v>0.474155423914146</v>
       </c>
     </row>
@@ -5782,16 +5809,16 @@
       <c r="B133" t="s">
         <v>10</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>0.52858531068849801</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="2">
         <v>0.54663141748780697</v>
       </c>
       <c r="E133">
         <v>0.46238614677019901</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="1">
         <v>0.48039066840821298</v>
       </c>
       <c r="G133">
@@ -5803,7 +5830,7 @@
       <c r="I133">
         <v>0.53402157224872404</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="1">
         <v>0.55460579238599605</v>
       </c>
       <c r="K133">
@@ -5820,10 +5847,10 @@
       <c r="B134" t="s">
         <v>26</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="1">
         <v>0.51923203748987801</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="2">
         <v>0.25339263363051001</v>
       </c>
       <c r="E134">
@@ -5838,7 +5865,7 @@
       <c r="I134">
         <v>0.54488262059877701</v>
       </c>
-      <c r="J134">
+      <c r="J134" s="1">
         <v>0.38786061007771999</v>
       </c>
       <c r="K134">
@@ -5852,16 +5879,16 @@
       <c r="B135" t="s">
         <v>11</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>0.49867900077737798</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="2">
         <v>0.40299563171366598</v>
       </c>
       <c r="E135">
         <v>0.54556149497506501</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="1">
         <v>0.38309099717045297</v>
       </c>
       <c r="G135">
@@ -5873,7 +5900,7 @@
       <c r="I135">
         <v>0.51627758783565902</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="1">
         <v>0.50713568204772796</v>
       </c>
       <c r="K135">
@@ -5890,16 +5917,16 @@
       <c r="B136" t="s">
         <v>12</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>0.67081468488238505</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="2">
         <v>0.63857142661556798</v>
       </c>
       <c r="E136">
         <v>0.47444194700680897</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="1">
         <v>0.65275325486090197</v>
       </c>
       <c r="G136">
@@ -5911,7 +5938,7 @@
       <c r="I136">
         <v>0.65843798800269204</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="1">
         <v>0.58232747954709696</v>
       </c>
       <c r="K136">
@@ -5928,16 +5955,16 @@
       <c r="B137" t="s">
         <v>13</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>0.62868067757616797</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="2">
         <v>0.54419244054494997</v>
       </c>
       <c r="E137">
         <v>0.26954840336852298</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="1">
         <v>0.30871460453726701</v>
       </c>
       <c r="G137">
@@ -5949,7 +5976,7 @@
       <c r="I137">
         <v>0.413306376299372</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="1">
         <v>0.47028019511672903</v>
       </c>
       <c r="K137">
@@ -5966,16 +5993,16 @@
       <c r="B138" t="s">
         <v>14</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>0.56860820832776904</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="2">
         <v>0.54272215953464198</v>
       </c>
       <c r="E138">
         <v>0.479688307527188</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="1">
         <v>0.60637231793707502</v>
       </c>
       <c r="G138">
@@ -5987,7 +6014,7 @@
       <c r="I138">
         <v>0.42380223021805202</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="1">
         <v>0.46228493829051098</v>
       </c>
       <c r="K138">
@@ -6004,13 +6031,13 @@
       <c r="B139" t="s">
         <v>20</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="1">
         <v>0.51396924178164805</v>
       </c>
       <c r="E139">
         <v>0.57117253108360699</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="1">
         <v>0.53378190231832101</v>
       </c>
       <c r="G139">
@@ -6022,7 +6049,7 @@
       <c r="I139">
         <v>0.58957013508190403</v>
       </c>
-      <c r="J139">
+      <c r="J139" s="1">
         <v>0.60839063512161295</v>
       </c>
       <c r="K139">
@@ -6039,16 +6066,16 @@
       <c r="B140" t="s">
         <v>15</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>0.522555489096035</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="2">
         <v>0.271843793073133</v>
       </c>
       <c r="E140">
         <v>0.49722631199366801</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="1">
         <v>0.41854923837218999</v>
       </c>
       <c r="G140">
@@ -6060,7 +6087,7 @@
       <c r="I140">
         <v>0.553853023668893</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="1">
         <v>0.57912104304812395</v>
       </c>
       <c r="K140">
@@ -6077,16 +6104,16 @@
       <c r="B141" t="s">
         <v>16</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>0.68897101137837302</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="2">
         <v>0.61547950049965605</v>
       </c>
       <c r="E141">
         <v>0.50821149421914502</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="1">
         <v>0.64885611760820305</v>
       </c>
       <c r="G141">
@@ -6098,7 +6125,7 @@
       <c r="I141">
         <v>0.69197629670895</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="1">
         <v>0.68154129071405201</v>
       </c>
       <c r="K141">
@@ -6115,13 +6142,13 @@
       <c r="B142" t="s">
         <v>21</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="1">
         <v>0.61076658544047102</v>
       </c>
       <c r="E142">
         <v>0.61073709846881097</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="1">
         <v>0.58216023863292099</v>
       </c>
       <c r="G142">
@@ -6133,7 +6160,7 @@
       <c r="I142">
         <v>0.57428544753119504</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="1">
         <v>0.49383119783106399</v>
       </c>
       <c r="K142">
@@ -6150,16 +6177,16 @@
       <c r="B143" t="s">
         <v>17</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>0.50417939063880202</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="2">
         <v>0.58326247687620303</v>
       </c>
       <c r="E143">
         <v>0.58262762665193202</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="1">
         <v>0.50469877972827004</v>
       </c>
       <c r="G143">
@@ -6171,7 +6198,7 @@
       <c r="I143">
         <v>0.51199304630814901</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="1">
         <v>0.49268245510558401</v>
       </c>
       <c r="K143">
@@ -6188,16 +6215,16 @@
       <c r="B144" t="s">
         <v>22</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <v>0.55006115584257298</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="2">
         <v>0.48846088247041403</v>
       </c>
       <c r="E144">
         <v>0.32112810025647598</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="1">
         <v>0.49930133217580402</v>
       </c>
       <c r="G144">
@@ -6209,7 +6236,7 @@
       <c r="I144">
         <v>0.52317097814485702</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="1">
         <v>0.507612216489987</v>
       </c>
       <c r="K144">
@@ -6223,16 +6250,16 @@
       <c r="B145" t="s">
         <v>31</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="1">
         <v>0.31085469777597402</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="2">
         <v>0.490082443789432</v>
       </c>
       <c r="E145">
         <v>0.39439709658369998</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="1">
         <v>0.49198430518596997</v>
       </c>
       <c r="G145">
@@ -6241,7 +6268,7 @@
       <c r="I145">
         <v>0.46925267064388199</v>
       </c>
-      <c r="J145">
+      <c r="J145" s="1">
         <v>0.55526109538414203</v>
       </c>
     </row>
@@ -6252,10 +6279,10 @@
       <c r="B146" t="s">
         <v>42</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>0.39566573047969</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="2">
         <v>0.32532772541441901</v>
       </c>
       <c r="E146">
@@ -6275,10 +6302,10 @@
       <c r="B147" t="s">
         <v>32</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>0.49176866986878898</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="2">
         <v>0.236787365994098</v>
       </c>
       <c r="E147">
@@ -6293,7 +6320,7 @@
       <c r="I147">
         <v>0.245628253254325</v>
       </c>
-      <c r="J147">
+      <c r="J147" s="1">
         <v>0.52905950541466895</v>
       </c>
     </row>
@@ -6304,10 +6331,10 @@
       <c r="B148" t="s">
         <v>43</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>0.47672290648825799</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="2">
         <v>0.22547691615549201</v>
       </c>
       <c r="E148">
@@ -6316,7 +6343,7 @@
       <c r="G148">
         <v>0.417554270179959</v>
       </c>
-      <c r="J148">
+      <c r="J148" s="1">
         <v>0.24224339799564601</v>
       </c>
     </row>
@@ -6327,19 +6354,19 @@
       <c r="B149" t="s">
         <v>44</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
         <v>0.32638888888888801</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="2">
         <v>0.51128838569205104</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="1">
         <v>0.222597834258938</v>
       </c>
       <c r="I149">
         <v>0.25995569052246997</v>
       </c>
-      <c r="J149">
+      <c r="J149" s="1">
         <v>0.287735580344887</v>
       </c>
     </row>
@@ -6350,7 +6377,7 @@
       <c r="B150" t="s">
         <v>45</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="1">
         <v>0.27675782464867799</v>
       </c>
       <c r="G150">
@@ -6362,7 +6389,7 @@
       <c r="I150">
         <v>0.30874096623777902</v>
       </c>
-      <c r="J150">
+      <c r="J150" s="1">
         <v>0.26338903823969301</v>
       </c>
     </row>
@@ -6373,7 +6400,7 @@
       <c r="B151" t="s">
         <v>46</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
         <v>0.535430574190498</v>
       </c>
       <c r="E151">
@@ -6396,16 +6423,16 @@
       <c r="B152" t="s">
         <v>18</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
         <v>0.56371962546869203</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="2">
         <v>0.27114861956663799</v>
       </c>
       <c r="E152">
         <v>0.55750413874650395</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="1">
         <v>0.52456498721899802</v>
       </c>
       <c r="G152">
@@ -6417,7 +6444,7 @@
       <c r="I152">
         <v>0.27728410606251103</v>
       </c>
-      <c r="J152">
+      <c r="J152" s="1">
         <v>0.25924098493212899</v>
       </c>
       <c r="K152">
@@ -6434,10 +6461,10 @@
       <c r="B153" t="s">
         <v>39</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
         <v>0.53609660739572695</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="2">
         <v>0.52226254667023297</v>
       </c>
       <c r="E153">
@@ -6449,7 +6476,7 @@
       <c r="I153">
         <v>0.29591432404287799</v>
       </c>
-      <c r="J153">
+      <c r="J153" s="1">
         <v>0.289401199875093</v>
       </c>
     </row>
@@ -6460,13 +6487,13 @@
       <c r="B154" t="s">
         <v>23</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="2">
         <v>0.62772775851255103</v>
       </c>
       <c r="E154">
         <v>0.214773071629657</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="1">
         <v>0.27392786268501701</v>
       </c>
       <c r="G154">
@@ -6478,7 +6505,7 @@
       <c r="I154">
         <v>0.62999934433117599</v>
       </c>
-      <c r="J154">
+      <c r="J154" s="1">
         <v>0.56413282813626198</v>
       </c>
       <c r="K154">
@@ -6495,10 +6522,10 @@
       <c r="B155" t="s">
         <v>33</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="1">
         <v>0.1547920155177</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="2">
         <v>0.30618632070885698</v>
       </c>
       <c r="E155">
@@ -6510,7 +6537,7 @@
       <c r="I155">
         <v>0.224359127031862</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="1">
         <v>0.51112986392730098</v>
       </c>
       <c r="K155">
@@ -6524,13 +6551,13 @@
       <c r="B156" t="s">
         <v>27</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="1">
         <v>0.58043146379222599</v>
       </c>
       <c r="E156">
         <v>0.43320806286675101</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="1">
         <v>0.58391928315252695</v>
       </c>
       <c r="H156">
@@ -6539,7 +6566,7 @@
       <c r="I156">
         <v>0.53968591814155698</v>
       </c>
-      <c r="J156">
+      <c r="J156" s="1">
         <v>0.51772864477045299</v>
       </c>
       <c r="K156">
@@ -6556,16 +6583,16 @@
       <c r="B157" t="s">
         <v>24</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="1">
         <v>0.48835548929852002</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="2">
         <v>0.25282566007018897</v>
       </c>
       <c r="E157">
         <v>0.279462758668581</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="1">
         <v>0.52789109413052604</v>
       </c>
       <c r="G157">
@@ -6577,7 +6604,7 @@
       <c r="I157">
         <v>0.423134596210198</v>
       </c>
-      <c r="J157">
+      <c r="J157" s="1">
         <v>0.61177958648431896</v>
       </c>
       <c r="K157">
@@ -6591,10 +6618,10 @@
       <c r="B158" t="s">
         <v>40</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="1">
         <v>0.31666643711628201</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="2">
         <v>0.27827370392596901</v>
       </c>
       <c r="E158">
@@ -6606,7 +6633,7 @@
       <c r="I158">
         <v>0.33423399337692999</v>
       </c>
-      <c r="J158">
+      <c r="J158" s="1">
         <v>0.34014015267415698</v>
       </c>
     </row>
@@ -6617,13 +6644,13 @@
       <c r="B159" t="s">
         <v>47</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>0.41618806103899297</v>
       </c>
       <c r="E159">
         <v>0.218445384811112</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="1">
         <v>0.45159625130499398</v>
       </c>
       <c r="G159">
@@ -6640,16 +6667,16 @@
       <c r="B160" t="s">
         <v>48</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="1">
         <v>0.22348666368977499</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="2">
         <v>0.194554413028283</v>
       </c>
       <c r="E160">
         <v>0.39378892738641302</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="1">
         <v>0.22151269515859401</v>
       </c>
       <c r="G160">
@@ -6663,7 +6690,7 @@
       <c r="B161" t="s">
         <v>28</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="1">
         <v>0.493330079460435</v>
       </c>
       <c r="E161">
@@ -6678,7 +6705,7 @@
       <c r="I161">
         <v>0.523300684394847</v>
       </c>
-      <c r="J161">
+      <c r="J161" s="1">
         <v>0.251700682991084</v>
       </c>
       <c r="K161">
@@ -6695,13 +6722,13 @@
       <c r="B162" t="s">
         <v>34</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <v>0.24003889116906299</v>
       </c>
       <c r="E162">
         <v>0.27476902069869202</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="1">
         <v>0.25360417846325201</v>
       </c>
       <c r="H162">
@@ -6710,7 +6737,7 @@
       <c r="I162">
         <v>0.28171719498333198</v>
       </c>
-      <c r="J162">
+      <c r="J162" s="1">
         <v>0.43112551285177497</v>
       </c>
       <c r="K162">
@@ -6724,16 +6751,16 @@
       <c r="B163" t="s">
         <v>19</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="1">
         <v>0.433178813225224</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="2">
         <v>0.415407405465409</v>
       </c>
       <c r="E163">
         <v>0.47120733418170502</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="1">
         <v>0.44889890725799397</v>
       </c>
       <c r="G163">
@@ -6745,7 +6772,7 @@
       <c r="I163">
         <v>0.51331919736025799</v>
       </c>
-      <c r="J163">
+      <c r="J163" s="1">
         <v>0.46650541205444701</v>
       </c>
       <c r="K163">
@@ -6762,19 +6789,19 @@
       <c r="B164" t="s">
         <v>49</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="1">
         <v>0.48355321675055801</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="2">
         <v>0.42598452483550497</v>
       </c>
       <c r="E164">
         <v>0.27159251801405698</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="1">
         <v>0.25301972191038702</v>
       </c>
-      <c r="J164">
+      <c r="J164" s="1">
         <v>0.24273286229334301</v>
       </c>
     </row>
@@ -6785,13 +6812,13 @@
       <c r="B165" t="s">
         <v>50</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="1">
         <v>0.54923117530369703</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="2">
         <v>0.54590420998690903</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="1">
         <v>0.46771785774875502</v>
       </c>
       <c r="G165">
@@ -6808,16 +6835,16 @@
       <c r="B166" t="s">
         <v>35</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="1">
         <v>0.496904120995045</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="2">
         <v>0.48875360227777898</v>
       </c>
       <c r="E166">
         <v>0.50103050150891104</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="1">
         <v>0.57700071703417799</v>
       </c>
       <c r="G166">
@@ -6826,7 +6853,7 @@
       <c r="I166">
         <v>0.57444859766676104</v>
       </c>
-      <c r="J166">
+      <c r="J166" s="1">
         <v>0.25091318118515199</v>
       </c>
     </row>
@@ -6837,16 +6864,16 @@
       <c r="B167" t="s">
         <v>29</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="1">
         <v>0.27664980425820401</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="2">
         <v>0.472784633135931</v>
       </c>
       <c r="E167">
         <v>0.43775328142273701</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="1">
         <v>0.28034189260355902</v>
       </c>
       <c r="G167">
@@ -6858,7 +6885,7 @@
       <c r="I167">
         <v>0.25877148894729901</v>
       </c>
-      <c r="J167">
+      <c r="J167" s="1">
         <v>0.23905299641811101</v>
       </c>
     </row>
@@ -6869,10 +6896,10 @@
       <c r="B168" t="s">
         <v>41</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="2">
         <v>0.39671376323343699</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="1">
         <v>0.38410103842765903</v>
       </c>
       <c r="H168">
@@ -6892,16 +6919,16 @@
       <c r="B169" t="s">
         <v>8</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="1">
         <v>0.61567593321416303</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="2">
         <v>0.55612791076684898</v>
       </c>
       <c r="E169">
         <v>0.495356793983039</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="1">
         <v>0.61701761368624497</v>
       </c>
       <c r="G169">
@@ -6913,7 +6940,7 @@
       <c r="I169">
         <v>0.63905980119971995</v>
       </c>
-      <c r="J169">
+      <c r="J169" s="1">
         <v>0.65219494444680204</v>
       </c>
       <c r="K169">
@@ -6930,10 +6957,10 @@
       <c r="B170" t="s">
         <v>36</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="1">
         <v>0.61909398142208205</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="2">
         <v>0.40652930572881002</v>
       </c>
       <c r="E170">
@@ -6956,7 +6983,7 @@
       <c r="B171" t="s">
         <v>30</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <v>0.82391369884747001</v>
       </c>
       <c r="E171">
@@ -6971,7 +6998,7 @@
       <c r="I171">
         <v>0.762332016402538</v>
       </c>
-      <c r="J171">
+      <c r="J171" s="1">
         <v>0.81627911847940304</v>
       </c>
       <c r="K171">
@@ -6985,16 +7012,16 @@
       <c r="B172" t="s">
         <v>9</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="1">
         <v>0.64674500709615101</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="2">
         <v>0.71942320756480604</v>
       </c>
       <c r="E172">
         <v>0.458977224674184</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="1">
         <v>0.61972445076148897</v>
       </c>
       <c r="G172">
@@ -7006,7 +7033,7 @@
       <c r="I172">
         <v>0.73218324293868497</v>
       </c>
-      <c r="J172">
+      <c r="J172" s="1">
         <v>0.67057593727843201</v>
       </c>
       <c r="K172">
@@ -7023,10 +7050,10 @@
       <c r="B173" t="s">
         <v>51</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="1">
         <v>0.63522051249261502</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="2">
         <v>0.52422499623269603</v>
       </c>
       <c r="E173">
@@ -7043,7 +7070,7 @@
       <c r="B174" t="s">
         <v>52</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="2">
         <v>0.58172831018245297</v>
       </c>
       <c r="E174">
@@ -7063,10 +7090,10 @@
       <c r="B175" t="s">
         <v>53</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="1">
         <v>2.77777777777777E-2</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="2">
         <v>0.147585660944859</v>
       </c>
       <c r="G175">
@@ -7083,10 +7110,10 @@
       <c r="B176" t="s">
         <v>37</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>0.46428219792362502</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="2">
         <v>0.21106261847754701</v>
       </c>
       <c r="E176">
@@ -7109,10 +7136,10 @@
       <c r="B177" t="s">
         <v>38</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <v>0.26340531550068502</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="2">
         <v>0.380706148448547</v>
       </c>
       <c r="E177">
@@ -7135,16 +7162,16 @@
       <c r="B178" t="s">
         <v>25</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="1">
         <v>0.50629689684382395</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="2">
         <v>0.55059975297294494</v>
       </c>
       <c r="E178">
         <v>0.56443114457826904</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="1">
         <v>0.56624661349676297</v>
       </c>
       <c r="G178">
@@ -7156,7 +7183,7 @@
       <c r="I178">
         <v>0.52578174088462803</v>
       </c>
-      <c r="J178">
+      <c r="J178" s="1">
         <v>0.474155423914146</v>
       </c>
     </row>
@@ -7167,16 +7194,16 @@
       <c r="B179" t="s">
         <v>10</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="1">
         <v>0.52858531068849801</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="2">
         <v>0.54663141748780697</v>
       </c>
       <c r="E179">
         <v>0.46238614677019901</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="1">
         <v>0.48039066840821298</v>
       </c>
       <c r="G179">
@@ -7188,7 +7215,7 @@
       <c r="I179">
         <v>0.53402157224872404</v>
       </c>
-      <c r="J179">
+      <c r="J179" s="1">
         <v>0.55460579238599605</v>
       </c>
       <c r="K179">
@@ -7205,10 +7232,10 @@
       <c r="B180" t="s">
         <v>26</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="1">
         <v>0.51923203748987801</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="2">
         <v>0.25339263363051001</v>
       </c>
       <c r="E180">
@@ -7223,7 +7250,7 @@
       <c r="I180">
         <v>0.54488262059877701</v>
       </c>
-      <c r="J180">
+      <c r="J180" s="1">
         <v>0.38786061007771999</v>
       </c>
       <c r="K180">
@@ -7237,16 +7264,16 @@
       <c r="B181" t="s">
         <v>11</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="1">
         <v>0.49867900077737798</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="2">
         <v>0.40299563171366598</v>
       </c>
       <c r="E181">
         <v>0.54556149497506501</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="1">
         <v>0.38309099717045297</v>
       </c>
       <c r="G181">
@@ -7258,7 +7285,7 @@
       <c r="I181">
         <v>0.51627758783565902</v>
       </c>
-      <c r="J181">
+      <c r="J181" s="1">
         <v>0.50713568204772796</v>
       </c>
       <c r="K181">
@@ -7278,7 +7305,7 @@
       <c r="E182">
         <v>0.27667525140685001</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="1">
         <v>0.498149372809502</v>
       </c>
       <c r="H182">
@@ -7301,7 +7328,7 @@
       <c r="H183">
         <v>0.55923444511558995</v>
       </c>
-      <c r="J183">
+      <c r="J183" s="1">
         <v>0.35763391403417699</v>
       </c>
       <c r="K183">
@@ -7315,16 +7342,16 @@
       <c r="B184" t="s">
         <v>12</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="1">
         <v>0.67081468488238505</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="2">
         <v>0.63857142661556798</v>
       </c>
       <c r="E184">
         <v>0.47444194700680897</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="1">
         <v>0.65275325486090197</v>
       </c>
       <c r="G184">
@@ -7336,7 +7363,7 @@
       <c r="I184">
         <v>0.65843798800269204</v>
       </c>
-      <c r="J184">
+      <c r="J184" s="1">
         <v>0.58232747954709696</v>
       </c>
       <c r="K184">
@@ -7353,16 +7380,16 @@
       <c r="B185" t="s">
         <v>13</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="1">
         <v>0.62868067757616797</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="2">
         <v>0.54419244054494997</v>
       </c>
       <c r="E185">
         <v>0.26954840336852298</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="1">
         <v>0.30871460453726701</v>
       </c>
       <c r="G185">
@@ -7374,7 +7401,7 @@
       <c r="I185">
         <v>0.413306376299372</v>
       </c>
-      <c r="J185">
+      <c r="J185" s="1">
         <v>0.47028019511672903</v>
       </c>
       <c r="K185">
@@ -7391,16 +7418,16 @@
       <c r="B186" t="s">
         <v>14</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="1">
         <v>0.56860820832776904</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="2">
         <v>0.54272215953464198</v>
       </c>
       <c r="E186">
         <v>0.479688307527188</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="1">
         <v>0.60637231793707502</v>
       </c>
       <c r="G186">
@@ -7412,7 +7439,7 @@
       <c r="I186">
         <v>0.42380223021805202</v>
       </c>
-      <c r="J186">
+      <c r="J186" s="1">
         <v>0.46228493829051098</v>
       </c>
       <c r="K186">
@@ -7429,13 +7456,13 @@
       <c r="B187" t="s">
         <v>20</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="1">
         <v>0.51396924178164805</v>
       </c>
       <c r="E187">
         <v>0.57117253108360699</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="1">
         <v>0.53378190231832101</v>
       </c>
       <c r="G187">
@@ -7447,7 +7474,7 @@
       <c r="I187">
         <v>0.58957013508190403</v>
       </c>
-      <c r="J187">
+      <c r="J187" s="1">
         <v>0.60839063512161295</v>
       </c>
       <c r="K187">
@@ -7464,16 +7491,16 @@
       <c r="B188" t="s">
         <v>15</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="1">
         <v>0.522555489096035</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="2">
         <v>0.271843793073133</v>
       </c>
       <c r="E188">
         <v>0.49722631199366801</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="1">
         <v>0.41854923837218999</v>
       </c>
       <c r="G188">
@@ -7485,7 +7512,7 @@
       <c r="I188">
         <v>0.553853023668893</v>
       </c>
-      <c r="J188">
+      <c r="J188" s="1">
         <v>0.57912104304812395</v>
       </c>
       <c r="K188">
@@ -7502,10 +7529,10 @@
       <c r="B189" t="s">
         <v>56</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="1">
         <v>0.42689110289910998</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="2">
         <v>0.41741645234248798</v>
       </c>
       <c r="E189">
@@ -7522,7 +7549,7 @@
       <c r="B190" t="s">
         <v>57</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="2">
         <v>0.25078400312708898</v>
       </c>
       <c r="E190">
@@ -7531,7 +7558,7 @@
       <c r="I190">
         <v>0.26463709425328003</v>
       </c>
-      <c r="J190">
+      <c r="J190" s="1">
         <v>0.231212375058401</v>
       </c>
     </row>
@@ -7542,16 +7569,16 @@
       <c r="B191" t="s">
         <v>58</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="2">
         <v>0.32102817913320097</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="1">
         <v>0.38495766891210198</v>
       </c>
       <c r="G191">
         <v>0.76293417798089502</v>
       </c>
-      <c r="J191">
+      <c r="J191" s="1">
         <v>0.71726568736753804</v>
       </c>
     </row>
@@ -7562,16 +7589,16 @@
       <c r="B192" t="s">
         <v>16</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="1">
         <v>0.68897101137837302</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="2">
         <v>0.61547950049965605</v>
       </c>
       <c r="E192">
         <v>0.50821149421914502</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="1">
         <v>0.64885611760820305</v>
       </c>
       <c r="G192">
@@ -7583,7 +7610,7 @@
       <c r="I192">
         <v>0.69197629670895</v>
       </c>
-      <c r="J192">
+      <c r="J192" s="1">
         <v>0.68154129071405201</v>
       </c>
       <c r="K192">
@@ -7600,13 +7627,13 @@
       <c r="B193" t="s">
         <v>21</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="1">
         <v>0.61076658544047102</v>
       </c>
       <c r="E193">
         <v>0.61073709846881097</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="1">
         <v>0.58216023863292099</v>
       </c>
       <c r="G193">
@@ -7618,7 +7645,7 @@
       <c r="I193">
         <v>0.57428544753119504</v>
       </c>
-      <c r="J193">
+      <c r="J193" s="1">
         <v>0.49383119783106399</v>
       </c>
       <c r="K193">
@@ -7635,16 +7662,16 @@
       <c r="B194" t="s">
         <v>17</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="1">
         <v>0.50417939063880202</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="2">
         <v>0.58326247687620303</v>
       </c>
       <c r="E194">
         <v>0.58262762665193202</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="1">
         <v>0.50469877972827004</v>
       </c>
       <c r="G194">
@@ -7656,7 +7683,7 @@
       <c r="I194">
         <v>0.51199304630814901</v>
       </c>
-      <c r="J194">
+      <c r="J194" s="1">
         <v>0.49268245510558401</v>
       </c>
       <c r="K194">
@@ -7673,16 +7700,16 @@
       <c r="B195" t="s">
         <v>22</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="1">
         <v>0.55006115584257298</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="2">
         <v>0.48846088247041403</v>
       </c>
       <c r="E195">
         <v>0.32112810025647598</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="1">
         <v>0.49930133217580402</v>
       </c>
       <c r="G195">
@@ -7694,7 +7721,7 @@
       <c r="I195">
         <v>0.52317097814485702</v>
       </c>
-      <c r="J195">
+      <c r="J195" s="1">
         <v>0.507612216489987</v>
       </c>
       <c r="K195">
@@ -7708,16 +7735,16 @@
       <c r="B196" t="s">
         <v>31</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="1">
         <v>0.31085469777597402</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="2">
         <v>0.490082443789432</v>
       </c>
       <c r="E196">
         <v>0.39439709658369998</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="1">
         <v>0.49198430518596997</v>
       </c>
       <c r="G196">
@@ -7726,7 +7753,7 @@
       <c r="I196">
         <v>0.46925267064388199</v>
       </c>
-      <c r="J196">
+      <c r="J196" s="1">
         <v>0.55526109538414203</v>
       </c>
     </row>
@@ -7737,10 +7764,10 @@
       <c r="B197" t="s">
         <v>59</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="1">
         <v>0.34353930447679498</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="2">
         <v>0.32718730581887101</v>
       </c>
       <c r="E197">
@@ -7757,10 +7784,10 @@
       <c r="B198" t="s">
         <v>42</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="1">
         <v>0.39566573047969</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="2">
         <v>0.32532772541441901</v>
       </c>
       <c r="E198">
@@ -7780,7 +7807,7 @@
       <c r="B199" t="s">
         <v>60</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="1">
         <v>0.19656378585221099</v>
       </c>
       <c r="E199">
@@ -7800,10 +7827,10 @@
       <c r="B200" t="s">
         <v>32</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="1">
         <v>0.49176866986878898</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="2">
         <v>0.236787365994098</v>
       </c>
       <c r="E200">
@@ -7818,7 +7845,7 @@
       <c r="I200">
         <v>0.245628253254325</v>
       </c>
-      <c r="J200">
+      <c r="J200" s="1">
         <v>0.52905950541466895</v>
       </c>
     </row>
@@ -7829,10 +7856,10 @@
       <c r="B201" t="s">
         <v>43</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="1">
         <v>0.47672290648825799</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="2">
         <v>0.22547691615549201</v>
       </c>
       <c r="E201">
@@ -7841,7 +7868,7 @@
       <c r="G201">
         <v>0.417554270179959</v>
       </c>
-      <c r="J201">
+      <c r="J201" s="1">
         <v>0.24224339799564601</v>
       </c>
     </row>
@@ -7852,13 +7879,13 @@
       <c r="B202" t="s">
         <v>61</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="1">
         <v>0.25099392940125498</v>
       </c>
       <c r="E202">
         <v>0.192196225063997</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="1">
         <v>0.44313485049909801</v>
       </c>
       <c r="H202">
@@ -7872,19 +7899,19 @@
       <c r="B203" t="s">
         <v>44</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="1">
         <v>0.32638888888888801</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="2">
         <v>0.51128838569205104</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="1">
         <v>0.222597834258938</v>
       </c>
       <c r="I203">
         <v>0.25995569052246997</v>
       </c>
-      <c r="J203">
+      <c r="J203" s="1">
         <v>0.287735580344887</v>
       </c>
     </row>
@@ -7895,7 +7922,7 @@
       <c r="B204" t="s">
         <v>45</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="1">
         <v>0.27675782464867799</v>
       </c>
       <c r="G204">
@@ -7907,7 +7934,7 @@
       <c r="I204">
         <v>0.30874096623777902</v>
       </c>
-      <c r="J204">
+      <c r="J204" s="1">
         <v>0.26338903823969301</v>
       </c>
     </row>
@@ -7918,7 +7945,7 @@
       <c r="B205" t="s">
         <v>46</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="1">
         <v>0.535430574190498</v>
       </c>
       <c r="E205">
@@ -7941,16 +7968,16 @@
       <c r="B206" t="s">
         <v>18</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="1">
         <v>0.56371962546869203</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="2">
         <v>0.27114861956663799</v>
       </c>
       <c r="E206">
         <v>0.55750413874650395</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="1">
         <v>0.52456498721899802</v>
       </c>
       <c r="G206">
@@ -7962,7 +7989,7 @@
       <c r="I206">
         <v>0.27728410606251103</v>
       </c>
-      <c r="J206">
+      <c r="J206" s="1">
         <v>0.25924098493212899</v>
       </c>
       <c r="K206">
@@ -7979,10 +8006,10 @@
       <c r="B207" t="s">
         <v>39</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="1">
         <v>0.53609660739572695</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="2">
         <v>0.52226254667023297</v>
       </c>
       <c r="E207">
@@ -7994,7 +8021,7 @@
       <c r="I207">
         <v>0.29591432404287799</v>
       </c>
-      <c r="J207">
+      <c r="J207" s="1">
         <v>0.289401199875093</v>
       </c>
     </row>
@@ -8005,7 +8032,7 @@
       <c r="B208" t="s">
         <v>62</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="1">
         <v>0.27032500521018399</v>
       </c>
       <c r="G208">
@@ -8014,7 +8041,7 @@
       <c r="H208">
         <v>0.30657906060186002</v>
       </c>
-      <c r="J208">
+      <c r="J208" s="1">
         <v>0.52734826585845596</v>
       </c>
     </row>
@@ -8025,13 +8052,13 @@
       <c r="B209" t="s">
         <v>23</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="2">
         <v>0.62772775851255103</v>
       </c>
       <c r="E209">
         <v>0.214773071629657</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="1">
         <v>0.27392786268501701</v>
       </c>
       <c r="G209">
@@ -8043,7 +8070,7 @@
       <c r="I209">
         <v>0.62999934433117599</v>
       </c>
-      <c r="J209">
+      <c r="J209" s="1">
         <v>0.56413282813626198</v>
       </c>
       <c r="K209">
@@ -8060,10 +8087,10 @@
       <c r="B210" t="s">
         <v>33</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="1">
         <v>0.1547920155177</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="2">
         <v>0.30618632070885698</v>
       </c>
       <c r="E210">
@@ -8075,7 +8102,7 @@
       <c r="I210">
         <v>0.224359127031862</v>
       </c>
-      <c r="J210">
+      <c r="J210" s="1">
         <v>0.51112986392730098</v>
       </c>
       <c r="K210">
@@ -8089,13 +8116,13 @@
       <c r="B211" t="s">
         <v>27</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="1">
         <v>0.58043146379222599</v>
       </c>
       <c r="E211">
         <v>0.43320806286675101</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="1">
         <v>0.58391928315252695</v>
       </c>
       <c r="H211">
@@ -8104,7 +8131,7 @@
       <c r="I211">
         <v>0.53968591814155698</v>
       </c>
-      <c r="J211">
+      <c r="J211" s="1">
         <v>0.51772864477045299</v>
       </c>
       <c r="K211">
@@ -8121,16 +8148,16 @@
       <c r="B212" t="s">
         <v>24</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="1">
         <v>0.48835548929852002</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="2">
         <v>0.25282566007018897</v>
       </c>
       <c r="E212">
         <v>0.279462758668581</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="1">
         <v>0.52789109413052604</v>
       </c>
       <c r="G212">
@@ -8142,7 +8169,7 @@
       <c r="I212">
         <v>0.423134596210198</v>
       </c>
-      <c r="J212">
+      <c r="J212" s="1">
         <v>0.61177958648431896</v>
       </c>
       <c r="K212">
@@ -8156,7 +8183,7 @@
       <c r="B213" t="s">
         <v>63</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="1">
         <v>0.56200216445934403</v>
       </c>
       <c r="E213">
@@ -8165,7 +8192,7 @@
       <c r="G213">
         <v>0.287965017165215</v>
       </c>
-      <c r="J213">
+      <c r="J213" s="1">
         <v>0.27409492305543998</v>
       </c>
     </row>
@@ -8176,10 +8203,10 @@
       <c r="B214" t="s">
         <v>40</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="1">
         <v>0.31666643711628201</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="2">
         <v>0.27827370392596901</v>
       </c>
       <c r="E214">
@@ -8191,7 +8218,7 @@
       <c r="I214">
         <v>0.33423399337692999</v>
       </c>
-      <c r="J214">
+      <c r="J214" s="1">
         <v>0.34014015267415698</v>
       </c>
     </row>
@@ -8202,7 +8229,7 @@
       <c r="B215" t="s">
         <v>64</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="1">
         <v>0.33207889813315999</v>
       </c>
       <c r="E215">
@@ -8211,7 +8238,7 @@
       <c r="H215">
         <v>0.32148901515455403</v>
       </c>
-      <c r="J215">
+      <c r="J215" s="1">
         <v>0.19324347924114599</v>
       </c>
     </row>
@@ -8222,13 +8249,13 @@
       <c r="B216" t="s">
         <v>47</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="1">
         <v>0.41618806103899297</v>
       </c>
       <c r="E216">
         <v>0.218445384811112</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="1">
         <v>0.45159625130499398</v>
       </c>
       <c r="G216">
@@ -8245,7 +8272,7 @@
       <c r="B217" t="s">
         <v>65</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="1">
         <v>0.44805692380968298</v>
       </c>
       <c r="E217">
@@ -8265,16 +8292,16 @@
       <c r="B218" t="s">
         <v>48</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="1">
         <v>0.22348666368977499</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="2">
         <v>0.194554413028283</v>
       </c>
       <c r="E218">
         <v>0.39378892738641302</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="1">
         <v>0.22151269515859401</v>
       </c>
       <c r="G218">
@@ -8288,7 +8315,7 @@
       <c r="B219" t="s">
         <v>28</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="1">
         <v>0.493330079460435</v>
       </c>
       <c r="E219">
@@ -8303,7 +8330,7 @@
       <c r="I219">
         <v>0.523300684394847</v>
       </c>
-      <c r="J219">
+      <c r="J219" s="1">
         <v>0.251700682991084</v>
       </c>
       <c r="K219">
@@ -8320,13 +8347,13 @@
       <c r="B220" t="s">
         <v>34</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="1">
         <v>0.24003889116906299</v>
       </c>
       <c r="E220">
         <v>0.27476902069869202</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="1">
         <v>0.25360417846325201</v>
       </c>
       <c r="H220">
@@ -8335,7 +8362,7 @@
       <c r="I220">
         <v>0.28171719498333198</v>
       </c>
-      <c r="J220">
+      <c r="J220" s="1">
         <v>0.43112551285177497</v>
       </c>
       <c r="K220">
@@ -8349,16 +8376,16 @@
       <c r="B221" t="s">
         <v>19</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="1">
         <v>0.433178813225224</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="2">
         <v>0.415407405465409</v>
       </c>
       <c r="E221">
         <v>0.47120733418170502</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="1">
         <v>0.44889890725799397</v>
       </c>
       <c r="G221">
@@ -8370,7 +8397,7 @@
       <c r="I221">
         <v>0.51331919736025799</v>
       </c>
-      <c r="J221">
+      <c r="J221" s="1">
         <v>0.46650541205444701</v>
       </c>
       <c r="K221">
@@ -8387,19 +8414,19 @@
       <c r="B222" t="s">
         <v>49</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="1">
         <v>0.48355321675055801</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="2">
         <v>0.42598452483550497</v>
       </c>
       <c r="E222">
         <v>0.27159251801405698</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="1">
         <v>0.25301972191038702</v>
       </c>
-      <c r="J222">
+      <c r="J222" s="1">
         <v>0.24273286229334301</v>
       </c>
     </row>
@@ -8410,13 +8437,13 @@
       <c r="B223" t="s">
         <v>50</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="1">
         <v>0.54923117530369703</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="2">
         <v>0.54590420998690903</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="1">
         <v>0.46771785774875502</v>
       </c>
       <c r="G223">
@@ -8433,16 +8460,16 @@
       <c r="B224" t="s">
         <v>35</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="1">
         <v>0.496904120995045</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="2">
         <v>0.48875360227777898</v>
       </c>
       <c r="E224">
         <v>0.50103050150891104</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="1">
         <v>0.57700071703417799</v>
       </c>
       <c r="G224">
@@ -8451,7 +8478,7 @@
       <c r="I224">
         <v>0.57444859766676104</v>
       </c>
-      <c r="J224">
+      <c r="J224" s="1">
         <v>0.25091318118515199</v>
       </c>
     </row>
@@ -8462,16 +8489,16 @@
       <c r="B225" t="s">
         <v>29</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="1">
         <v>0.27664980425820401</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="2">
         <v>0.472784633135931</v>
       </c>
       <c r="E225">
         <v>0.43775328142273701</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="1">
         <v>0.28034189260355902</v>
       </c>
       <c r="G225">
@@ -8483,7 +8510,7 @@
       <c r="I225">
         <v>0.25877148894729901</v>
       </c>
-      <c r="J225">
+      <c r="J225" s="1">
         <v>0.23905299641811101</v>
       </c>
     </row>
@@ -8494,10 +8521,10 @@
       <c r="B226" t="s">
         <v>66</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="1">
         <v>0.30832762243116801</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="2">
         <v>0.50914876282036003</v>
       </c>
       <c r="I226">
@@ -8511,10 +8538,10 @@
       <c r="B227" t="s">
         <v>41</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="2">
         <v>0.39671376323343699</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="1">
         <v>0.38410103842765903</v>
       </c>
       <c r="H227">
@@ -8534,16 +8561,16 @@
       <c r="B228" t="s">
         <v>8</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="1">
         <v>0.61567593321416303</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="2">
         <v>0.55612791076684898</v>
       </c>
       <c r="E228">
         <v>0.495356793983039</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="1">
         <v>0.61701761368624497</v>
       </c>
       <c r="G228">
@@ -8555,7 +8582,7 @@
       <c r="I228">
         <v>0.63905980119971995</v>
       </c>
-      <c r="J228">
+      <c r="J228" s="1">
         <v>0.65219494444680204</v>
       </c>
       <c r="K228">
@@ -8572,10 +8599,10 @@
       <c r="B229" t="s">
         <v>36</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="1">
         <v>0.61909398142208205</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="2">
         <v>0.40652930572881002</v>
       </c>
       <c r="E229">
@@ -8598,7 +8625,7 @@
       <c r="B230" t="s">
         <v>30</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="1">
         <v>0.82391369884747001</v>
       </c>
       <c r="E230">
@@ -8613,7 +8640,7 @@
       <c r="I230">
         <v>0.762332016402538</v>
       </c>
-      <c r="J230">
+      <c r="J230" s="1">
         <v>0.81627911847940304</v>
       </c>
       <c r="K230">
@@ -8627,16 +8654,16 @@
       <c r="B231" t="s">
         <v>9</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="1">
         <v>0.64674500709615101</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="2">
         <v>0.71942320756480604</v>
       </c>
       <c r="E231">
         <v>0.458977224674184</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="1">
         <v>0.61972445076148897</v>
       </c>
       <c r="G231">
@@ -8648,7 +8675,7 @@
       <c r="I231">
         <v>0.73218324293868497</v>
       </c>
-      <c r="J231">
+      <c r="J231" s="1">
         <v>0.67057593727843201</v>
       </c>
       <c r="K231">
@@ -8665,7 +8692,7 @@
       <c r="B232" t="s">
         <v>67</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="1">
         <v>0.70847892333471896</v>
       </c>
       <c r="G232">
@@ -8682,10 +8709,10 @@
       <c r="B233" t="s">
         <v>51</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="1">
         <v>0.63522051249261502</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="2">
         <v>0.52422499623269603</v>
       </c>
       <c r="E233">
@@ -8702,7 +8729,7 @@
       <c r="B234" t="s">
         <v>68</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="2">
         <v>0.926893820069293</v>
       </c>
       <c r="G234">
@@ -8719,7 +8746,7 @@
       <c r="B235" t="s">
         <v>69</v>
       </c>
-      <c r="F235">
+      <c r="F235" s="1">
         <v>0.741157190215602</v>
       </c>
       <c r="G235">
@@ -8736,7 +8763,7 @@
       <c r="B236" t="s">
         <v>52</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="2">
         <v>0.58172831018245297</v>
       </c>
       <c r="E236">
@@ -8756,10 +8783,10 @@
       <c r="B237" t="s">
         <v>53</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="1">
         <v>2.77777777777777E-2</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="2">
         <v>0.147585660944859</v>
       </c>
       <c r="G237">
@@ -8776,10 +8803,10 @@
       <c r="B238" t="s">
         <v>37</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="1">
         <v>0.46428219792362502</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="2">
         <v>0.21106261847754701</v>
       </c>
       <c r="E238">
@@ -8802,10 +8829,10 @@
       <c r="B239" t="s">
         <v>38</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="1">
         <v>0.26340531550068502</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="2">
         <v>0.380706148448547</v>
       </c>
       <c r="E239">
@@ -8828,16 +8855,16 @@
       <c r="B240" t="s">
         <v>25</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="1">
         <v>0.50629689684382395</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="2">
         <v>0.55059975297294494</v>
       </c>
       <c r="E240">
         <v>0.56443114457826904</v>
       </c>
-      <c r="F240">
+      <c r="F240" s="1">
         <v>0.56624661349676297</v>
       </c>
       <c r="G240">
@@ -8849,7 +8876,7 @@
       <c r="I240">
         <v>0.52578174088462803</v>
       </c>
-      <c r="J240">
+      <c r="J240" s="1">
         <v>0.474155423914146</v>
       </c>
     </row>
@@ -8860,16 +8887,16 @@
       <c r="B241" t="s">
         <v>10</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="1">
         <v>0.52858531068849801</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="2">
         <v>0.54663141748780697</v>
       </c>
       <c r="E241">
         <v>0.46238614677019901</v>
       </c>
-      <c r="F241">
+      <c r="F241" s="1">
         <v>0.48039066840821298</v>
       </c>
       <c r="G241">
@@ -8881,7 +8908,7 @@
       <c r="I241">
         <v>0.53402157224872404</v>
       </c>
-      <c r="J241">
+      <c r="J241" s="1">
         <v>0.55460579238599605</v>
       </c>
       <c r="K241">
@@ -8898,10 +8925,10 @@
       <c r="B242" t="s">
         <v>26</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="1">
         <v>0.51923203748987801</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="2">
         <v>0.25339263363051001</v>
       </c>
       <c r="E242">
@@ -8916,7 +8943,7 @@
       <c r="I242">
         <v>0.54488262059877701</v>
       </c>
-      <c r="J242">
+      <c r="J242" s="1">
         <v>0.38786061007771999</v>
       </c>
       <c r="K242">
@@ -8930,16 +8957,16 @@
       <c r="B243" t="s">
         <v>11</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="1">
         <v>0.49867900077737798</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="2">
         <v>0.40299563171366598</v>
       </c>
       <c r="E243">
         <v>0.54556149497506501</v>
       </c>
-      <c r="F243">
+      <c r="F243" s="1">
         <v>0.38309099717045297</v>
       </c>
       <c r="G243">
@@ -8951,7 +8978,7 @@
       <c r="I243">
         <v>0.51627758783565902</v>
       </c>
-      <c r="J243">
+      <c r="J243" s="1">
         <v>0.50713568204772796</v>
       </c>
       <c r="K243">
@@ -8971,7 +8998,7 @@
       <c r="E244">
         <v>0.27667525140685001</v>
       </c>
-      <c r="F244">
+      <c r="F244" s="1">
         <v>0.498149372809502</v>
       </c>
       <c r="H244">
@@ -8988,13 +9015,13 @@
       <c r="B245" t="s">
         <v>70</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="1">
         <v>0.27118652871422</v>
       </c>
       <c r="E245">
         <v>0.25221347500487101</v>
       </c>
-      <c r="F245">
+      <c r="F245" s="1">
         <v>0.18602597648231101</v>
       </c>
     </row>
@@ -9011,7 +9038,7 @@
       <c r="H246">
         <v>0.55923444511558995</v>
       </c>
-      <c r="J246">
+      <c r="J246" s="1">
         <v>0.35763391403417699</v>
       </c>
       <c r="K246">
@@ -9025,16 +9052,16 @@
       <c r="B247" t="s">
         <v>12</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="1">
         <v>0.67081468488238505</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="2">
         <v>0.63857142661556798</v>
       </c>
       <c r="E247">
         <v>0.47444194700680897</v>
       </c>
-      <c r="F247">
+      <c r="F247" s="1">
         <v>0.65275325486090197</v>
       </c>
       <c r="G247">
@@ -9046,7 +9073,7 @@
       <c r="I247">
         <v>0.65843798800269204</v>
       </c>
-      <c r="J247">
+      <c r="J247" s="1">
         <v>0.58232747954709696</v>
       </c>
       <c r="K247">
@@ -9063,16 +9090,16 @@
       <c r="B248" t="s">
         <v>13</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="1">
         <v>0.62868067757616797</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="2">
         <v>0.54419244054494997</v>
       </c>
       <c r="E248">
         <v>0.26954840336852298</v>
       </c>
-      <c r="F248">
+      <c r="F248" s="1">
         <v>0.30871460453726701</v>
       </c>
       <c r="G248">
@@ -9084,7 +9111,7 @@
       <c r="I248">
         <v>0.413306376299372</v>
       </c>
-      <c r="J248">
+      <c r="J248" s="1">
         <v>0.47028019511672903</v>
       </c>
       <c r="K248">
@@ -9101,16 +9128,16 @@
       <c r="B249" t="s">
         <v>14</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="1">
         <v>0.56860820832776904</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="2">
         <v>0.54272215953464198</v>
       </c>
       <c r="E249">
         <v>0.479688307527188</v>
       </c>
-      <c r="F249">
+      <c r="F249" s="1">
         <v>0.60637231793707502</v>
       </c>
       <c r="G249">
@@ -9122,7 +9149,7 @@
       <c r="I249">
         <v>0.42380223021805202</v>
       </c>
-      <c r="J249">
+      <c r="J249" s="1">
         <v>0.46228493829051098</v>
       </c>
       <c r="K249">
@@ -9139,13 +9166,13 @@
       <c r="B250" t="s">
         <v>20</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="1">
         <v>0.51396924178164805</v>
       </c>
       <c r="E250">
         <v>0.57117253108360699</v>
       </c>
-      <c r="F250">
+      <c r="F250" s="1">
         <v>0.53378190231832101</v>
       </c>
       <c r="G250">
@@ -9157,7 +9184,7 @@
       <c r="I250">
         <v>0.58957013508190403</v>
       </c>
-      <c r="J250">
+      <c r="J250" s="1">
         <v>0.60839063512161295</v>
       </c>
       <c r="K250">
@@ -9174,16 +9201,16 @@
       <c r="B251" t="s">
         <v>15</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="1">
         <v>0.522555489096035</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="2">
         <v>0.271843793073133</v>
       </c>
       <c r="E251">
         <v>0.49722631199366801</v>
       </c>
-      <c r="F251">
+      <c r="F251" s="1">
         <v>0.41854923837218999</v>
       </c>
       <c r="G251">
@@ -9195,7 +9222,7 @@
       <c r="I251">
         <v>0.553853023668893</v>
       </c>
-      <c r="J251">
+      <c r="J251" s="1">
         <v>0.57912104304812395</v>
       </c>
       <c r="K251">
@@ -9212,10 +9239,10 @@
       <c r="B252" t="s">
         <v>56</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="1">
         <v>0.42689110289910998</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="2">
         <v>0.41741645234248798</v>
       </c>
       <c r="E252">
@@ -9232,7 +9259,7 @@
       <c r="B253" t="s">
         <v>57</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="2">
         <v>0.25078400312708898</v>
       </c>
       <c r="E253">
@@ -9241,7 +9268,7 @@
       <c r="I253">
         <v>0.26463709425328003</v>
       </c>
-      <c r="J253">
+      <c r="J253" s="1">
         <v>0.231212375058401</v>
       </c>
     </row>
@@ -9252,16 +9279,16 @@
       <c r="B254" t="s">
         <v>58</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="2">
         <v>0.32102817913320097</v>
       </c>
-      <c r="F254">
+      <c r="F254" s="1">
         <v>0.38495766891210198</v>
       </c>
       <c r="G254">
         <v>0.76293417798089502</v>
       </c>
-      <c r="J254">
+      <c r="J254" s="1">
         <v>0.71726568736753804</v>
       </c>
     </row>
@@ -9272,16 +9299,16 @@
       <c r="B255" t="s">
         <v>16</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="1">
         <v>0.68897101137837302</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="2">
         <v>0.61547950049965605</v>
       </c>
       <c r="E255">
         <v>0.50821149421914502</v>
       </c>
-      <c r="F255">
+      <c r="F255" s="1">
         <v>0.64885611760820305</v>
       </c>
       <c r="G255">
@@ -9293,7 +9320,7 @@
       <c r="I255">
         <v>0.69197629670895</v>
       </c>
-      <c r="J255">
+      <c r="J255" s="1">
         <v>0.68154129071405201</v>
       </c>
       <c r="K255">
@@ -9310,13 +9337,13 @@
       <c r="B256" t="s">
         <v>21</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="1">
         <v>0.61076658544047102</v>
       </c>
       <c r="E256">
         <v>0.61073709846881097</v>
       </c>
-      <c r="F256">
+      <c r="F256" s="1">
         <v>0.58216023863292099</v>
       </c>
       <c r="G256">
@@ -9328,7 +9355,7 @@
       <c r="I256">
         <v>0.57428544753119504</v>
       </c>
-      <c r="J256">
+      <c r="J256" s="1">
         <v>0.49383119783106399</v>
       </c>
       <c r="K256">
@@ -9345,16 +9372,16 @@
       <c r="B257" t="s">
         <v>17</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="1">
         <v>0.50417939063880202</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="2">
         <v>0.58326247687620303</v>
       </c>
       <c r="E257">
         <v>0.58262762665193202</v>
       </c>
-      <c r="F257">
+      <c r="F257" s="1">
         <v>0.50469877972827004</v>
       </c>
       <c r="G257">
@@ -9366,7 +9393,7 @@
       <c r="I257">
         <v>0.51199304630814901</v>
       </c>
-      <c r="J257">
+      <c r="J257" s="1">
         <v>0.49268245510558401</v>
       </c>
       <c r="K257">
@@ -9383,16 +9410,16 @@
       <c r="B258" t="s">
         <v>22</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="1">
         <v>0.55006115584257298</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="2">
         <v>0.48846088247041403</v>
       </c>
       <c r="E258">
         <v>0.32112810025647598</v>
       </c>
-      <c r="F258">
+      <c r="F258" s="1">
         <v>0.49930133217580402</v>
       </c>
       <c r="G258">
@@ -9404,7 +9431,7 @@
       <c r="I258">
         <v>0.52317097814485702</v>
       </c>
-      <c r="J258">
+      <c r="J258" s="1">
         <v>0.507612216489987</v>
       </c>
       <c r="K258">
@@ -9418,16 +9445,16 @@
       <c r="B259" t="s">
         <v>31</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="1">
         <v>0.31085469777597402</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="2">
         <v>0.490082443789432</v>
       </c>
       <c r="E259">
         <v>0.39439709658369998</v>
       </c>
-      <c r="F259">
+      <c r="F259" s="1">
         <v>0.49198430518596997</v>
       </c>
       <c r="G259">
@@ -9436,7 +9463,7 @@
       <c r="I259">
         <v>0.46925267064388199</v>
       </c>
-      <c r="J259">
+      <c r="J259" s="1">
         <v>0.55526109538414203</v>
       </c>
     </row>
@@ -9447,13 +9474,13 @@
       <c r="B260" t="s">
         <v>71</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="1">
         <v>0.597215426565325</v>
       </c>
       <c r="E260">
         <v>0.64586599675787904</v>
       </c>
-      <c r="F260">
+      <c r="F260" s="1">
         <v>0.61291238754794997</v>
       </c>
     </row>
@@ -9464,10 +9491,10 @@
       <c r="B261" t="s">
         <v>59</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="1">
         <v>0.34353930447679498</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="2">
         <v>0.32718730581887101</v>
       </c>
       <c r="E261">
@@ -9484,10 +9511,10 @@
       <c r="B262" t="s">
         <v>42</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="1">
         <v>0.39566573047969</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="2">
         <v>0.32532772541441901</v>
       </c>
       <c r="E262">
@@ -9507,7 +9534,7 @@
       <c r="B263" t="s">
         <v>60</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="1">
         <v>0.19656378585221099</v>
       </c>
       <c r="E263">
@@ -9527,7 +9554,7 @@
       <c r="B264" t="s">
         <v>72</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="1">
         <v>0.36610261311366499</v>
       </c>
       <c r="G264">
@@ -9544,10 +9571,10 @@
       <c r="B265" t="s">
         <v>32</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="1">
         <v>0.49176866986878898</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="2">
         <v>0.236787365994098</v>
       </c>
       <c r="E265">
@@ -9562,7 +9589,7 @@
       <c r="I265">
         <v>0.245628253254325</v>
       </c>
-      <c r="J265">
+      <c r="J265" s="1">
         <v>0.52905950541466895</v>
       </c>
     </row>
@@ -9573,10 +9600,10 @@
       <c r="B266" t="s">
         <v>43</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="1">
         <v>0.47672290648825799</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="2">
         <v>0.22547691615549201</v>
       </c>
       <c r="E266">
@@ -9585,7 +9612,7 @@
       <c r="G266">
         <v>0.417554270179959</v>
       </c>
-      <c r="J266">
+      <c r="J266" s="1">
         <v>0.24224339799564601</v>
       </c>
     </row>
@@ -9596,13 +9623,13 @@
       <c r="B267" t="s">
         <v>61</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="1">
         <v>0.25099392940125498</v>
       </c>
       <c r="E267">
         <v>0.192196225063997</v>
       </c>
-      <c r="F267">
+      <c r="F267" s="1">
         <v>0.44313485049909801</v>
       </c>
       <c r="H267">
@@ -9616,19 +9643,19 @@
       <c r="B268" t="s">
         <v>44</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="1">
         <v>0.32638888888888801</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="2">
         <v>0.51128838569205104</v>
       </c>
-      <c r="F268">
+      <c r="F268" s="1">
         <v>0.222597834258938</v>
       </c>
       <c r="I268">
         <v>0.25995569052246997</v>
       </c>
-      <c r="J268">
+      <c r="J268" s="1">
         <v>0.287735580344887</v>
       </c>
     </row>
@@ -9639,7 +9666,7 @@
       <c r="B269" t="s">
         <v>45</v>
       </c>
-      <c r="F269">
+      <c r="F269" s="1">
         <v>0.27675782464867799</v>
       </c>
       <c r="G269">
@@ -9651,7 +9678,7 @@
       <c r="I269">
         <v>0.30874096623777902</v>
       </c>
-      <c r="J269">
+      <c r="J269" s="1">
         <v>0.26338903823969301</v>
       </c>
     </row>
@@ -9662,7 +9689,7 @@
       <c r="B270" t="s">
         <v>46</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="1">
         <v>0.535430574190498</v>
       </c>
       <c r="E270">
@@ -9685,16 +9712,16 @@
       <c r="B271" t="s">
         <v>18</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="1">
         <v>0.56371962546869203</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="2">
         <v>0.27114861956663799</v>
       </c>
       <c r="E271">
         <v>0.55750413874650395</v>
       </c>
-      <c r="F271">
+      <c r="F271" s="1">
         <v>0.52456498721899802</v>
       </c>
       <c r="G271">
@@ -9706,7 +9733,7 @@
       <c r="I271">
         <v>0.27728410606251103</v>
       </c>
-      <c r="J271">
+      <c r="J271" s="1">
         <v>0.25924098493212899</v>
       </c>
       <c r="K271">
@@ -9723,10 +9750,10 @@
       <c r="B272" t="s">
         <v>39</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="1">
         <v>0.53609660739572695</v>
       </c>
-      <c r="D272">
+      <c r="D272" s="2">
         <v>0.52226254667023297</v>
       </c>
       <c r="E272">
@@ -9738,7 +9765,7 @@
       <c r="I272">
         <v>0.29591432404287799</v>
       </c>
-      <c r="J272">
+      <c r="J272" s="1">
         <v>0.289401199875093</v>
       </c>
     </row>
@@ -9749,7 +9776,7 @@
       <c r="B273" t="s">
         <v>62</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="1">
         <v>0.27032500521018399</v>
       </c>
       <c r="G273">
@@ -9758,7 +9785,7 @@
       <c r="H273">
         <v>0.30657906060186002</v>
       </c>
-      <c r="J273">
+      <c r="J273" s="1">
         <v>0.52734826585845596</v>
       </c>
     </row>
@@ -9769,13 +9796,13 @@
       <c r="B274" t="s">
         <v>23</v>
       </c>
-      <c r="D274">
+      <c r="D274" s="2">
         <v>0.62772775851255103</v>
       </c>
       <c r="E274">
         <v>0.214773071629657</v>
       </c>
-      <c r="F274">
+      <c r="F274" s="1">
         <v>0.27392786268501701</v>
       </c>
       <c r="G274">
@@ -9787,7 +9814,7 @@
       <c r="I274">
         <v>0.62999934433117599</v>
       </c>
-      <c r="J274">
+      <c r="J274" s="1">
         <v>0.56413282813626198</v>
       </c>
       <c r="K274">
@@ -9804,10 +9831,10 @@
       <c r="B275" t="s">
         <v>33</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="1">
         <v>0.1547920155177</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="2">
         <v>0.30618632070885698</v>
       </c>
       <c r="E275">
@@ -9819,7 +9846,7 @@
       <c r="I275">
         <v>0.224359127031862</v>
       </c>
-      <c r="J275">
+      <c r="J275" s="1">
         <v>0.51112986392730098</v>
       </c>
       <c r="K275">
@@ -9833,13 +9860,13 @@
       <c r="B276" t="s">
         <v>27</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="1">
         <v>0.58043146379222599</v>
       </c>
       <c r="E276">
         <v>0.43320806286675101</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="1">
         <v>0.58391928315252695</v>
       </c>
       <c r="H276">
@@ -9848,7 +9875,7 @@
       <c r="I276">
         <v>0.53968591814155698</v>
       </c>
-      <c r="J276">
+      <c r="J276" s="1">
         <v>0.51772864477045299</v>
       </c>
       <c r="K276">
@@ -9865,16 +9892,16 @@
       <c r="B277" t="s">
         <v>24</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="1">
         <v>0.48835548929852002</v>
       </c>
-      <c r="D277">
+      <c r="D277" s="2">
         <v>0.25282566007018897</v>
       </c>
       <c r="E277">
         <v>0.279462758668581</v>
       </c>
-      <c r="F277">
+      <c r="F277" s="1">
         <v>0.52789109413052604</v>
       </c>
       <c r="G277">
@@ -9886,7 +9913,7 @@
       <c r="I277">
         <v>0.423134596210198</v>
       </c>
-      <c r="J277">
+      <c r="J277" s="1">
         <v>0.61177958648431896</v>
       </c>
       <c r="K277">
@@ -9900,7 +9927,7 @@
       <c r="B278" t="s">
         <v>63</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="1">
         <v>0.56200216445934403</v>
       </c>
       <c r="E278">
@@ -9909,7 +9936,7 @@
       <c r="G278">
         <v>0.287965017165215</v>
       </c>
-      <c r="J278">
+      <c r="J278" s="1">
         <v>0.27409492305543998</v>
       </c>
     </row>
@@ -9920,10 +9947,10 @@
       <c r="B279" t="s">
         <v>40</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="1">
         <v>0.31666643711628201</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="2">
         <v>0.27827370392596901</v>
       </c>
       <c r="E279">
@@ -9935,7 +9962,7 @@
       <c r="I279">
         <v>0.33423399337692999</v>
       </c>
-      <c r="J279">
+      <c r="J279" s="1">
         <v>0.34014015267415698</v>
       </c>
     </row>
@@ -9946,7 +9973,7 @@
       <c r="B280" t="s">
         <v>64</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="1">
         <v>0.33207889813315999</v>
       </c>
       <c r="E280">
@@ -9955,7 +9982,7 @@
       <c r="H280">
         <v>0.32148901515455403</v>
       </c>
-      <c r="J280">
+      <c r="J280" s="1">
         <v>0.19324347924114599</v>
       </c>
     </row>
@@ -9966,13 +9993,13 @@
       <c r="B281" t="s">
         <v>47</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="1">
         <v>0.41618806103899297</v>
       </c>
       <c r="E281">
         <v>0.218445384811112</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="1">
         <v>0.45159625130499398</v>
       </c>
       <c r="G281">
@@ -9989,7 +10016,7 @@
       <c r="B282" t="s">
         <v>65</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="1">
         <v>0.44805692380968298</v>
       </c>
       <c r="E282">
@@ -10009,16 +10036,16 @@
       <c r="B283" t="s">
         <v>48</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="1">
         <v>0.22348666368977499</v>
       </c>
-      <c r="D283">
+      <c r="D283" s="2">
         <v>0.194554413028283</v>
       </c>
       <c r="E283">
         <v>0.39378892738641302</v>
       </c>
-      <c r="F283">
+      <c r="F283" s="1">
         <v>0.22151269515859401</v>
       </c>
       <c r="G283">
@@ -10032,7 +10059,7 @@
       <c r="B284" t="s">
         <v>28</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="1">
         <v>0.493330079460435</v>
       </c>
       <c r="E284">
@@ -10047,7 +10074,7 @@
       <c r="I284">
         <v>0.523300684394847</v>
       </c>
-      <c r="J284">
+      <c r="J284" s="1">
         <v>0.251700682991084</v>
       </c>
       <c r="K284">
@@ -10064,13 +10091,13 @@
       <c r="B285" t="s">
         <v>34</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="1">
         <v>0.24003889116906299</v>
       </c>
       <c r="E285">
         <v>0.27476902069869202</v>
       </c>
-      <c r="F285">
+      <c r="F285" s="1">
         <v>0.25360417846325201</v>
       </c>
       <c r="H285">
@@ -10079,7 +10106,7 @@
       <c r="I285">
         <v>0.28171719498333198</v>
       </c>
-      <c r="J285">
+      <c r="J285" s="1">
         <v>0.43112551285177497</v>
       </c>
       <c r="K285">
@@ -10093,16 +10120,16 @@
       <c r="B286" t="s">
         <v>19</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="1">
         <v>0.433178813225224</v>
       </c>
-      <c r="D286">
+      <c r="D286" s="2">
         <v>0.415407405465409</v>
       </c>
       <c r="E286">
         <v>0.47120733418170502</v>
       </c>
-      <c r="F286">
+      <c r="F286" s="1">
         <v>0.44889890725799397</v>
       </c>
       <c r="G286">
@@ -10114,7 +10141,7 @@
       <c r="I286">
         <v>0.51331919736025799</v>
       </c>
-      <c r="J286">
+      <c r="J286" s="1">
         <v>0.46650541205444701</v>
       </c>
       <c r="K286">
@@ -10131,19 +10158,19 @@
       <c r="B287" t="s">
         <v>49</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="1">
         <v>0.48355321675055801</v>
       </c>
-      <c r="D287">
+      <c r="D287" s="2">
         <v>0.42598452483550497</v>
       </c>
       <c r="E287">
         <v>0.27159251801405698</v>
       </c>
-      <c r="F287">
+      <c r="F287" s="1">
         <v>0.25301972191038702</v>
       </c>
-      <c r="J287">
+      <c r="J287" s="1">
         <v>0.24273286229334301</v>
       </c>
     </row>
@@ -10154,10 +10181,10 @@
       <c r="B288" t="s">
         <v>73</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="1">
         <v>0.24700329772197499</v>
       </c>
-      <c r="D288">
+      <c r="D288" s="2">
         <v>0.248907491124814</v>
       </c>
       <c r="E288">
@@ -10171,13 +10198,13 @@
       <c r="B289" t="s">
         <v>50</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="1">
         <v>0.54923117530369703</v>
       </c>
-      <c r="D289">
+      <c r="D289" s="2">
         <v>0.54590420998690903</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="1">
         <v>0.46771785774875502</v>
       </c>
       <c r="G289">
@@ -10194,16 +10221,16 @@
       <c r="B290" t="s">
         <v>35</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="1">
         <v>0.496904120995045</v>
       </c>
-      <c r="D290">
+      <c r="D290" s="2">
         <v>0.48875360227777898</v>
       </c>
       <c r="E290">
         <v>0.50103050150891104</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="1">
         <v>0.57700071703417799</v>
       </c>
       <c r="G290">
@@ -10212,7 +10239,7 @@
       <c r="I290">
         <v>0.57444859766676104</v>
       </c>
-      <c r="J290">
+      <c r="J290" s="1">
         <v>0.25091318118515199</v>
       </c>
     </row>
@@ -10223,16 +10250,16 @@
       <c r="B291" t="s">
         <v>29</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="1">
         <v>0.27664980425820401</v>
       </c>
-      <c r="D291">
+      <c r="D291" s="2">
         <v>0.472784633135931</v>
       </c>
       <c r="E291">
         <v>0.43775328142273701</v>
       </c>
-      <c r="F291">
+      <c r="F291" s="1">
         <v>0.28034189260355902</v>
       </c>
       <c r="G291">
@@ -10244,7 +10271,7 @@
       <c r="I291">
         <v>0.25877148894729901</v>
       </c>
-      <c r="J291">
+      <c r="J291" s="1">
         <v>0.23905299641811101</v>
       </c>
     </row>
@@ -10272,10 +10299,10 @@
       <c r="B293" t="s">
         <v>66</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="1">
         <v>0.30832762243116801</v>
       </c>
-      <c r="D293">
+      <c r="D293" s="2">
         <v>0.50914876282036003</v>
       </c>
       <c r="I293">
@@ -10289,7 +10316,7 @@
       <c r="B294" t="s">
         <v>75</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="1">
         <v>0.26417273285134701</v>
       </c>
       <c r="G294">
@@ -10303,10 +10330,10 @@
       <c r="B295" t="s">
         <v>76</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="1">
         <v>0.43753089483065899</v>
       </c>
-      <c r="D295">
+      <c r="D295" s="2">
         <v>0.418773517551223</v>
       </c>
     </row>
@@ -10317,10 +10344,10 @@
       <c r="B296" t="s">
         <v>41</v>
       </c>
-      <c r="D296">
+      <c r="D296" s="2">
         <v>0.39671376323343699</v>
       </c>
-      <c r="F296">
+      <c r="F296" s="1">
         <v>0.38410103842765903</v>
       </c>
       <c r="H296">
@@ -10340,16 +10367,16 @@
       <c r="B297" t="s">
         <v>8</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="1">
         <v>0.61567593321416303</v>
       </c>
-      <c r="D297">
+      <c r="D297" s="2">
         <v>0.55612791076684898</v>
       </c>
       <c r="E297">
         <v>0.495356793983039</v>
       </c>
-      <c r="F297">
+      <c r="F297" s="1">
         <v>0.61701761368624497</v>
       </c>
       <c r="G297">
@@ -10361,7 +10388,7 @@
       <c r="I297">
         <v>0.63905980119971995</v>
       </c>
-      <c r="J297">
+      <c r="J297" s="1">
         <v>0.65219494444680204</v>
       </c>
       <c r="K297">
@@ -10378,10 +10405,10 @@
       <c r="B298" t="s">
         <v>36</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="1">
         <v>0.61909398142208205</v>
       </c>
-      <c r="D298">
+      <c r="D298" s="2">
         <v>0.40652930572881002</v>
       </c>
       <c r="E298">
@@ -10418,10 +10445,10 @@
       <c r="B300" t="s">
         <v>78</v>
       </c>
-      <c r="D300">
+      <c r="D300" s="2">
         <v>0.49935161718999599</v>
       </c>
-      <c r="J300">
+      <c r="J300" s="1">
         <v>0.48964751258536898</v>
       </c>
     </row>
@@ -10432,7 +10459,7 @@
       <c r="B301" t="s">
         <v>30</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="1">
         <v>0.82391369884747001</v>
       </c>
       <c r="E301">
@@ -10447,7 +10474,7 @@
       <c r="I301">
         <v>0.762332016402538</v>
       </c>
-      <c r="J301">
+      <c r="J301" s="1">
         <v>0.81627911847940304</v>
       </c>
       <c r="K301">
@@ -10461,16 +10488,16 @@
       <c r="B302" t="s">
         <v>9</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="1">
         <v>0.64674500709615101</v>
       </c>
-      <c r="D302">
+      <c r="D302" s="2">
         <v>0.71942320756480604</v>
       </c>
       <c r="E302">
         <v>0.458977224674184</v>
       </c>
-      <c r="F302">
+      <c r="F302" s="1">
         <v>0.61972445076148897</v>
       </c>
       <c r="G302">
@@ -10482,7 +10509,7 @@
       <c r="I302">
         <v>0.73218324293868497</v>
       </c>
-      <c r="J302">
+      <c r="J302" s="1">
         <v>0.67057593727843201</v>
       </c>
       <c r="K302">
@@ -10499,7 +10526,7 @@
       <c r="B303" t="s">
         <v>67</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="1">
         <v>0.70847892333471896</v>
       </c>
       <c r="G303">
@@ -10516,10 +10543,10 @@
       <c r="B304" t="s">
         <v>51</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="1">
         <v>0.63522051249261502</v>
       </c>
-      <c r="D304">
+      <c r="D304" s="2">
         <v>0.52422499623269603</v>
       </c>
       <c r="E304">
@@ -10536,7 +10563,7 @@
       <c r="B305" t="s">
         <v>68</v>
       </c>
-      <c r="D305">
+      <c r="D305" s="2">
         <v>0.926893820069293</v>
       </c>
       <c r="G305">
@@ -10553,7 +10580,7 @@
       <c r="B306" t="s">
         <v>69</v>
       </c>
-      <c r="F306">
+      <c r="F306" s="1">
         <v>0.741157190215602</v>
       </c>
       <c r="G306">
@@ -10570,7 +10597,7 @@
       <c r="B307" t="s">
         <v>52</v>
       </c>
-      <c r="D307">
+      <c r="D307" s="2">
         <v>0.58172831018245297</v>
       </c>
       <c r="E307">
@@ -10590,7 +10617,7 @@
       <c r="B308" t="s">
         <v>79</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="1">
         <v>0.31103426753866598</v>
       </c>
       <c r="E308">
@@ -10604,7 +10631,7 @@
       <c r="B309" t="s">
         <v>80</v>
       </c>
-      <c r="D309">
+      <c r="D309" s="2">
         <v>0.674449335291049</v>
       </c>
       <c r="E309">
@@ -10618,10 +10645,10 @@
       <c r="B310" t="s">
         <v>53</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="1">
         <v>2.77777777777777E-2</v>
       </c>
-      <c r="D310">
+      <c r="D310" s="2">
         <v>0.147585660944859</v>
       </c>
       <c r="G310">
@@ -10638,10 +10665,10 @@
       <c r="B311" t="s">
         <v>37</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="1">
         <v>0.46428219792362502</v>
       </c>
-      <c r="D311">
+      <c r="D311" s="2">
         <v>0.21106261847754701</v>
       </c>
       <c r="E311">
@@ -10664,10 +10691,10 @@
       <c r="B312" t="s">
         <v>38</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="1">
         <v>0.26340531550068502</v>
       </c>
-      <c r="D312">
+      <c r="D312" s="2">
         <v>0.380706148448547</v>
       </c>
       <c r="E312">
@@ -10690,7 +10717,7 @@
       <c r="B313" t="s">
         <v>81</v>
       </c>
-      <c r="F313">
+      <c r="F313" s="1">
         <v>0.186026969742039</v>
       </c>
       <c r="I313">
@@ -10704,7 +10731,7 @@
       <c r="B314" t="s">
         <v>82</v>
       </c>
-      <c r="D314">
+      <c r="D314" s="2">
         <v>0.52173607549516599</v>
       </c>
       <c r="I314">
@@ -10718,16 +10745,16 @@
       <c r="B315" t="s">
         <v>25</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="1">
         <v>0.50629689684382395</v>
       </c>
-      <c r="D315">
+      <c r="D315" s="2">
         <v>0.55059975297294494</v>
       </c>
       <c r="E315">
         <v>0.56443114457826904</v>
       </c>
-      <c r="F315">
+      <c r="F315" s="1">
         <v>0.56624661349676297</v>
       </c>
       <c r="G315">
@@ -10739,7 +10766,7 @@
       <c r="I315">
         <v>0.52578174088462803</v>
       </c>
-      <c r="J315">
+      <c r="J315" s="1">
         <v>0.474155423914146</v>
       </c>
     </row>
@@ -10750,16 +10777,16 @@
       <c r="B316" t="s">
         <v>10</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="1">
         <v>0.52858531068849801</v>
       </c>
-      <c r="D316">
+      <c r="D316" s="2">
         <v>0.54663141748780697</v>
       </c>
       <c r="E316">
         <v>0.46238614677019901</v>
       </c>
-      <c r="F316">
+      <c r="F316" s="1">
         <v>0.48039066840821298</v>
       </c>
       <c r="G316">
@@ -10771,7 +10798,7 @@
       <c r="I316">
         <v>0.53402157224872404</v>
       </c>
-      <c r="J316">
+      <c r="J316" s="1">
         <v>0.55460579238599605</v>
       </c>
       <c r="K316">
@@ -10788,10 +10815,10 @@
       <c r="B317" t="s">
         <v>26</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="1">
         <v>0.51923203748987801</v>
       </c>
-      <c r="D317">
+      <c r="D317" s="2">
         <v>0.25339263363051001</v>
       </c>
       <c r="E317">
@@ -10806,7 +10833,7 @@
       <c r="I317">
         <v>0.54488262059877701</v>
       </c>
-      <c r="J317">
+      <c r="J317" s="1">
         <v>0.38786061007771999</v>
       </c>
       <c r="K317">
@@ -10820,16 +10847,16 @@
       <c r="B318" t="s">
         <v>11</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="1">
         <v>0.49867900077737798</v>
       </c>
-      <c r="D318">
+      <c r="D318" s="2">
         <v>0.40299563171366598</v>
       </c>
       <c r="E318">
         <v>0.54556149497506501</v>
       </c>
-      <c r="F318">
+      <c r="F318" s="1">
         <v>0.38309099717045297</v>
       </c>
       <c r="G318">
@@ -10841,7 +10868,7 @@
       <c r="I318">
         <v>0.51627758783565902</v>
       </c>
-      <c r="J318">
+      <c r="J318" s="1">
         <v>0.50713568204772796</v>
       </c>
       <c r="K318">
@@ -10861,7 +10888,7 @@
       <c r="E319">
         <v>0.27667525140685001</v>
       </c>
-      <c r="F319">
+      <c r="F319" s="1">
         <v>0.498149372809502</v>
       </c>
       <c r="H319">
@@ -10878,13 +10905,13 @@
       <c r="B320" t="s">
         <v>70</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="1">
         <v>0.27118652871422</v>
       </c>
       <c r="E320">
         <v>0.25221347500487101</v>
       </c>
-      <c r="F320">
+      <c r="F320" s="1">
         <v>0.18602597648231101</v>
       </c>
     </row>
@@ -10901,7 +10928,7 @@
       <c r="H321">
         <v>0.55923444511558995</v>
       </c>
-      <c r="J321">
+      <c r="J321" s="1">
         <v>0.35763391403417699</v>
       </c>
       <c r="K321">
@@ -10915,16 +10942,16 @@
       <c r="B322" t="s">
         <v>12</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="1">
         <v>0.67081468488238505</v>
       </c>
-      <c r="D322">
+      <c r="D322" s="2">
         <v>0.63857142661556798</v>
       </c>
       <c r="E322">
         <v>0.47444194700680897</v>
       </c>
-      <c r="F322">
+      <c r="F322" s="1">
         <v>0.65275325486090197</v>
       </c>
       <c r="G322">
@@ -10936,7 +10963,7 @@
       <c r="I322">
         <v>0.65843798800269204</v>
       </c>
-      <c r="J322">
+      <c r="J322" s="1">
         <v>0.58232747954709696</v>
       </c>
       <c r="K322">
@@ -10953,16 +10980,16 @@
       <c r="B323" t="s">
         <v>13</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="1">
         <v>0.62868067757616797</v>
       </c>
-      <c r="D323">
+      <c r="D323" s="2">
         <v>0.54419244054494997</v>
       </c>
       <c r="E323">
         <v>0.26954840336852298</v>
       </c>
-      <c r="F323">
+      <c r="F323" s="1">
         <v>0.30871460453726701</v>
       </c>
       <c r="G323">
@@ -10974,7 +11001,7 @@
       <c r="I323">
         <v>0.413306376299372</v>
       </c>
-      <c r="J323">
+      <c r="J323" s="1">
         <v>0.47028019511672903</v>
       </c>
       <c r="K323">
@@ -10991,16 +11018,16 @@
       <c r="B324" t="s">
         <v>14</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="1">
         <v>0.56860820832776904</v>
       </c>
-      <c r="D324">
+      <c r="D324" s="2">
         <v>0.54272215953464198</v>
       </c>
       <c r="E324">
         <v>0.479688307527188</v>
       </c>
-      <c r="F324">
+      <c r="F324" s="1">
         <v>0.60637231793707502</v>
       </c>
       <c r="G324">
@@ -11012,7 +11039,7 @@
       <c r="I324">
         <v>0.42380223021805202</v>
       </c>
-      <c r="J324">
+      <c r="J324" s="1">
         <v>0.46228493829051098</v>
       </c>
       <c r="K324">
@@ -11029,13 +11056,13 @@
       <c r="B325" t="s">
         <v>20</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="1">
         <v>0.51396924178164805</v>
       </c>
       <c r="E325">
         <v>0.57117253108360699</v>
       </c>
-      <c r="F325">
+      <c r="F325" s="1">
         <v>0.53378190231832101</v>
       </c>
       <c r="G325">
@@ -11047,7 +11074,7 @@
       <c r="I325">
         <v>0.58957013508190403</v>
       </c>
-      <c r="J325">
+      <c r="J325" s="1">
         <v>0.60839063512161295</v>
       </c>
       <c r="K325">
@@ -11064,16 +11091,16 @@
       <c r="B326" t="s">
         <v>15</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="1">
         <v>0.522555489096035</v>
       </c>
-      <c r="D326">
+      <c r="D326" s="2">
         <v>0.271843793073133</v>
       </c>
       <c r="E326">
         <v>0.49722631199366801</v>
       </c>
-      <c r="F326">
+      <c r="F326" s="1">
         <v>0.41854923837218999</v>
       </c>
       <c r="G326">
@@ -11085,7 +11112,7 @@
       <c r="I326">
         <v>0.553853023668893</v>
       </c>
-      <c r="J326">
+      <c r="J326" s="1">
         <v>0.57912104304812395</v>
       </c>
       <c r="K326">
@@ -11102,10 +11129,10 @@
       <c r="B327" t="s">
         <v>56</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="1">
         <v>0.42689110289910998</v>
       </c>
-      <c r="D327">
+      <c r="D327" s="2">
         <v>0.41741645234248798</v>
       </c>
       <c r="E327">
@@ -11122,7 +11149,7 @@
       <c r="B328" t="s">
         <v>57</v>
       </c>
-      <c r="D328">
+      <c r="D328" s="2">
         <v>0.25078400312708898</v>
       </c>
       <c r="E328">
@@ -11131,7 +11158,7 @@
       <c r="I328">
         <v>0.26463709425328003</v>
       </c>
-      <c r="J328">
+      <c r="J328" s="1">
         <v>0.231212375058401</v>
       </c>
     </row>
@@ -11142,16 +11169,16 @@
       <c r="B329" t="s">
         <v>58</v>
       </c>
-      <c r="D329">
+      <c r="D329" s="2">
         <v>0.32102817913320097</v>
       </c>
-      <c r="F329">
+      <c r="F329" s="1">
         <v>0.38495766891210198</v>
       </c>
       <c r="G329">
         <v>0.76293417798089502</v>
       </c>
-      <c r="J329">
+      <c r="J329" s="1">
         <v>0.71726568736753804</v>
       </c>
     </row>
@@ -11162,16 +11189,16 @@
       <c r="B330" t="s">
         <v>16</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="1">
         <v>0.68897101137837302</v>
       </c>
-      <c r="D330">
+      <c r="D330" s="2">
         <v>0.61547950049965605</v>
       </c>
       <c r="E330">
         <v>0.50821149421914502</v>
       </c>
-      <c r="F330">
+      <c r="F330" s="1">
         <v>0.64885611760820305</v>
       </c>
       <c r="G330">
@@ -11183,7 +11210,7 @@
       <c r="I330">
         <v>0.69197629670895</v>
       </c>
-      <c r="J330">
+      <c r="J330" s="1">
         <v>0.68154129071405201</v>
       </c>
       <c r="K330">
@@ -11200,13 +11227,13 @@
       <c r="B331" t="s">
         <v>21</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="1">
         <v>0.61076658544047102</v>
       </c>
       <c r="E331">
         <v>0.61073709846881097</v>
       </c>
-      <c r="F331">
+      <c r="F331" s="1">
         <v>0.58216023863292099</v>
       </c>
       <c r="G331">
@@ -11218,7 +11245,7 @@
       <c r="I331">
         <v>0.57428544753119504</v>
       </c>
-      <c r="J331">
+      <c r="J331" s="1">
         <v>0.49383119783106399</v>
       </c>
       <c r="K331">
@@ -11235,16 +11262,16 @@
       <c r="B332" t="s">
         <v>17</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="1">
         <v>0.50417939063880202</v>
       </c>
-      <c r="D332">
+      <c r="D332" s="2">
         <v>0.58326247687620303</v>
       </c>
       <c r="E332">
         <v>0.58262762665193202</v>
       </c>
-      <c r="F332">
+      <c r="F332" s="1">
         <v>0.50469877972827004</v>
       </c>
       <c r="G332">
@@ -11256,7 +11283,7 @@
       <c r="I332">
         <v>0.51199304630814901</v>
       </c>
-      <c r="J332">
+      <c r="J332" s="1">
         <v>0.49268245510558401</v>
       </c>
       <c r="K332">
@@ -11273,16 +11300,16 @@
       <c r="B333" t="s">
         <v>22</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="1">
         <v>0.55006115584257298</v>
       </c>
-      <c r="D333">
+      <c r="D333" s="2">
         <v>0.48846088247041403</v>
       </c>
       <c r="E333">
         <v>0.32112810025647598</v>
       </c>
-      <c r="F333">
+      <c r="F333" s="1">
         <v>0.49930133217580402</v>
       </c>
       <c r="G333">
@@ -11294,7 +11321,7 @@
       <c r="I333">
         <v>0.52317097814485702</v>
       </c>
-      <c r="J333">
+      <c r="J333" s="1">
         <v>0.507612216489987</v>
       </c>
       <c r="K333">
@@ -11308,16 +11335,16 @@
       <c r="B334" t="s">
         <v>31</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="1">
         <v>0.31085469777597402</v>
       </c>
-      <c r="D334">
+      <c r="D334" s="2">
         <v>0.490082443789432</v>
       </c>
       <c r="E334">
         <v>0.39439709658369998</v>
       </c>
-      <c r="F334">
+      <c r="F334" s="1">
         <v>0.49198430518596997</v>
       </c>
       <c r="G334">
@@ -11326,7 +11353,7 @@
       <c r="I334">
         <v>0.46925267064388199</v>
       </c>
-      <c r="J334">
+      <c r="J334" s="1">
         <v>0.55526109538414203</v>
       </c>
     </row>
@@ -11337,10 +11364,10 @@
       <c r="B335" t="s">
         <v>83</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="1">
         <v>0.37670843765814199</v>
       </c>
-      <c r="F335">
+      <c r="F335" s="1">
         <v>0.32220189717671499</v>
       </c>
     </row>
@@ -11351,13 +11378,13 @@
       <c r="B336" t="s">
         <v>71</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="1">
         <v>0.597215426565325</v>
       </c>
       <c r="E336">
         <v>0.64586599675787904</v>
       </c>
-      <c r="F336">
+      <c r="F336" s="1">
         <v>0.61291238754794997</v>
       </c>
     </row>
@@ -11368,10 +11395,10 @@
       <c r="B337" t="s">
         <v>59</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="1">
         <v>0.34353930447679498</v>
       </c>
-      <c r="D337">
+      <c r="D337" s="2">
         <v>0.32718730581887101</v>
       </c>
       <c r="E337">
@@ -11388,7 +11415,7 @@
       <c r="B338" t="s">
         <v>84</v>
       </c>
-      <c r="D338">
+      <c r="D338" s="2">
         <v>0.49831355257063598</v>
       </c>
       <c r="E338">
@@ -11402,10 +11429,10 @@
       <c r="B339" t="s">
         <v>85</v>
       </c>
-      <c r="D339">
+      <c r="D339" s="2">
         <v>0.13792388531934599</v>
       </c>
-      <c r="J339">
+      <c r="J339" s="1">
         <v>0.213126140609597</v>
       </c>
     </row>
@@ -11416,10 +11443,10 @@
       <c r="B340" t="s">
         <v>42</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="1">
         <v>0.39566573047969</v>
       </c>
-      <c r="D340">
+      <c r="D340" s="2">
         <v>0.32532772541441901</v>
       </c>
       <c r="E340">
@@ -11439,7 +11466,7 @@
       <c r="B341" t="s">
         <v>60</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="1">
         <v>0.19656378585221099</v>
       </c>
       <c r="E341">
@@ -11459,7 +11486,7 @@
       <c r="B342" t="s">
         <v>72</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="1">
         <v>0.36610261311366499</v>
       </c>
       <c r="G342">
@@ -11476,10 +11503,10 @@
       <c r="B343" t="s">
         <v>32</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="1">
         <v>0.49176866986878898</v>
       </c>
-      <c r="D343">
+      <c r="D343" s="2">
         <v>0.236787365994098</v>
       </c>
       <c r="E343">
@@ -11494,7 +11521,7 @@
       <c r="I343">
         <v>0.245628253254325</v>
       </c>
-      <c r="J343">
+      <c r="J343" s="1">
         <v>0.52905950541466895</v>
       </c>
     </row>
@@ -11505,10 +11532,10 @@
       <c r="B344" t="s">
         <v>43</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="1">
         <v>0.47672290648825799</v>
       </c>
-      <c r="D344">
+      <c r="D344" s="2">
         <v>0.22547691615549201</v>
       </c>
       <c r="E344">
@@ -11517,7 +11544,7 @@
       <c r="G344">
         <v>0.417554270179959</v>
       </c>
-      <c r="J344">
+      <c r="J344" s="1">
         <v>0.24224339799564601</v>
       </c>
     </row>
@@ -11528,13 +11555,13 @@
       <c r="B345" t="s">
         <v>61</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="1">
         <v>0.25099392940125498</v>
       </c>
       <c r="E345">
         <v>0.192196225063997</v>
       </c>
-      <c r="F345">
+      <c r="F345" s="1">
         <v>0.44313485049909801</v>
       </c>
       <c r="H345">
@@ -11548,19 +11575,19 @@
       <c r="B346" t="s">
         <v>44</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="1">
         <v>0.32638888888888801</v>
       </c>
-      <c r="D346">
+      <c r="D346" s="2">
         <v>0.51128838569205104</v>
       </c>
-      <c r="F346">
+      <c r="F346" s="1">
         <v>0.222597834258938</v>
       </c>
       <c r="I346">
         <v>0.25995569052246997</v>
       </c>
-      <c r="J346">
+      <c r="J346" s="1">
         <v>0.287735580344887</v>
       </c>
     </row>
@@ -11571,7 +11598,7 @@
       <c r="B347" t="s">
         <v>45</v>
       </c>
-      <c r="F347">
+      <c r="F347" s="1">
         <v>0.27675782464867799</v>
       </c>
       <c r="G347">
@@ -11583,7 +11610,7 @@
       <c r="I347">
         <v>0.30874096623777902</v>
       </c>
-      <c r="J347">
+      <c r="J347" s="1">
         <v>0.26338903823969301</v>
       </c>
     </row>
@@ -11594,7 +11621,7 @@
       <c r="B348" t="s">
         <v>46</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="1">
         <v>0.535430574190498</v>
       </c>
       <c r="E348">
@@ -11617,16 +11644,16 @@
       <c r="B349" t="s">
         <v>18</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="1">
         <v>0.56371962546869203</v>
       </c>
-      <c r="D349">
+      <c r="D349" s="2">
         <v>0.27114861956663799</v>
       </c>
       <c r="E349">
         <v>0.55750413874650395</v>
       </c>
-      <c r="F349">
+      <c r="F349" s="1">
         <v>0.52456498721899802</v>
       </c>
       <c r="G349">
@@ -11638,7 +11665,7 @@
       <c r="I349">
         <v>0.27728410606251103</v>
       </c>
-      <c r="J349">
+      <c r="J349" s="1">
         <v>0.25924098493212899</v>
       </c>
       <c r="K349">
@@ -11655,10 +11682,10 @@
       <c r="B350" t="s">
         <v>39</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="1">
         <v>0.53609660739572695</v>
       </c>
-      <c r="D350">
+      <c r="D350" s="2">
         <v>0.52226254667023297</v>
       </c>
       <c r="E350">
@@ -11670,7 +11697,7 @@
       <c r="I350">
         <v>0.29591432404287799</v>
       </c>
-      <c r="J350">
+      <c r="J350" s="1">
         <v>0.289401199875093</v>
       </c>
     </row>
@@ -11681,7 +11708,7 @@
       <c r="B351" t="s">
         <v>62</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="1">
         <v>0.27032500521018399</v>
       </c>
       <c r="G351">
@@ -11690,7 +11717,7 @@
       <c r="H351">
         <v>0.30657906060186002</v>
       </c>
-      <c r="J351">
+      <c r="J351" s="1">
         <v>0.52734826585845596</v>
       </c>
     </row>
@@ -11701,10 +11728,10 @@
       <c r="B352" t="s">
         <v>86</v>
       </c>
-      <c r="D352">
+      <c r="D352" s="2">
         <v>0.50098134307373599</v>
       </c>
-      <c r="J352">
+      <c r="J352" s="1">
         <v>0.61080966566066497</v>
       </c>
     </row>
@@ -11715,13 +11742,13 @@
       <c r="B353" t="s">
         <v>23</v>
       </c>
-      <c r="D353">
+      <c r="D353" s="2">
         <v>0.62772775851255103</v>
       </c>
       <c r="E353">
         <v>0.214773071629657</v>
       </c>
-      <c r="F353">
+      <c r="F353" s="1">
         <v>0.27392786268501701</v>
       </c>
       <c r="G353">
@@ -11733,7 +11760,7 @@
       <c r="I353">
         <v>0.62999934433117599</v>
       </c>
-      <c r="J353">
+      <c r="J353" s="1">
         <v>0.56413282813626198</v>
       </c>
       <c r="K353">
@@ -11750,10 +11777,10 @@
       <c r="B354" t="s">
         <v>33</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="1">
         <v>0.1547920155177</v>
       </c>
-      <c r="D354">
+      <c r="D354" s="2">
         <v>0.30618632070885698</v>
       </c>
       <c r="E354">
@@ -11765,7 +11792,7 @@
       <c r="I354">
         <v>0.224359127031862</v>
       </c>
-      <c r="J354">
+      <c r="J354" s="1">
         <v>0.51112986392730098</v>
       </c>
       <c r="K354">
@@ -11779,13 +11806,13 @@
       <c r="B355" t="s">
         <v>27</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="1">
         <v>0.58043146379222599</v>
       </c>
       <c r="E355">
         <v>0.43320806286675101</v>
       </c>
-      <c r="F355">
+      <c r="F355" s="1">
         <v>0.58391928315252695</v>
       </c>
       <c r="H355">
@@ -11794,7 +11821,7 @@
       <c r="I355">
         <v>0.53968591814155698</v>
       </c>
-      <c r="J355">
+      <c r="J355" s="1">
         <v>0.51772864477045299</v>
       </c>
       <c r="K355">
@@ -11811,16 +11838,16 @@
       <c r="B356" t="s">
         <v>24</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="1">
         <v>0.48835548929852002</v>
       </c>
-      <c r="D356">
+      <c r="D356" s="2">
         <v>0.25282566007018897</v>
       </c>
       <c r="E356">
         <v>0.279462758668581</v>
       </c>
-      <c r="F356">
+      <c r="F356" s="1">
         <v>0.52789109413052604</v>
       </c>
       <c r="G356">
@@ -11832,7 +11859,7 @@
       <c r="I356">
         <v>0.423134596210198</v>
       </c>
-      <c r="J356">
+      <c r="J356" s="1">
         <v>0.61177958648431896</v>
       </c>
       <c r="K356">
@@ -11846,7 +11873,7 @@
       <c r="B357" t="s">
         <v>63</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="1">
         <v>0.56200216445934403</v>
       </c>
       <c r="E357">
@@ -11855,7 +11882,7 @@
       <c r="G357">
         <v>0.287965017165215</v>
       </c>
-      <c r="J357">
+      <c r="J357" s="1">
         <v>0.27409492305543998</v>
       </c>
     </row>
@@ -11866,7 +11893,7 @@
       <c r="B358" t="s">
         <v>87</v>
       </c>
-      <c r="F358">
+      <c r="F358" s="1">
         <v>0.340707594457208</v>
       </c>
       <c r="H358">
@@ -11880,10 +11907,10 @@
       <c r="B359" t="s">
         <v>88</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="1">
         <v>0.33101722687262503</v>
       </c>
-      <c r="F359">
+      <c r="F359" s="1">
         <v>0.38822545652497198</v>
       </c>
     </row>
@@ -11894,10 +11921,10 @@
       <c r="B360" t="s">
         <v>40</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="1">
         <v>0.31666643711628201</v>
       </c>
-      <c r="D360">
+      <c r="D360" s="2">
         <v>0.27827370392596901</v>
       </c>
       <c r="E360">
@@ -11909,7 +11936,7 @@
       <c r="I360">
         <v>0.33423399337692999</v>
       </c>
-      <c r="J360">
+      <c r="J360" s="1">
         <v>0.34014015267415698</v>
       </c>
     </row>
@@ -11934,7 +11961,7 @@
       <c r="B362" t="s">
         <v>64</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="1">
         <v>0.33207889813315999</v>
       </c>
       <c r="E362">
@@ -11943,7 +11970,7 @@
       <c r="H362">
         <v>0.32148901515455403</v>
       </c>
-      <c r="J362">
+      <c r="J362" s="1">
         <v>0.19324347924114599</v>
       </c>
     </row>
@@ -11954,7 +11981,7 @@
       <c r="B363" t="s">
         <v>90</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="1">
         <v>0.39053508941225401</v>
       </c>
       <c r="E363">
@@ -11982,13 +12009,13 @@
       <c r="B365" t="s">
         <v>47</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="1">
         <v>0.41618806103899297</v>
       </c>
       <c r="E365">
         <v>0.218445384811112</v>
       </c>
-      <c r="F365">
+      <c r="F365" s="1">
         <v>0.45159625130499398</v>
       </c>
       <c r="G365">
@@ -12005,7 +12032,7 @@
       <c r="B366" t="s">
         <v>65</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="1">
         <v>0.44805692380968298</v>
       </c>
       <c r="E366">
@@ -12025,16 +12052,16 @@
       <c r="B367" t="s">
         <v>48</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="1">
         <v>0.22348666368977499</v>
       </c>
-      <c r="D367">
+      <c r="D367" s="2">
         <v>0.194554413028283</v>
       </c>
       <c r="E367">
         <v>0.39378892738641302</v>
       </c>
-      <c r="F367">
+      <c r="F367" s="1">
         <v>0.22151269515859401</v>
       </c>
       <c r="G367">
@@ -12048,7 +12075,7 @@
       <c r="B368" t="s">
         <v>28</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="1">
         <v>0.493330079460435</v>
       </c>
       <c r="E368">
@@ -12063,7 +12090,7 @@
       <c r="I368">
         <v>0.523300684394847</v>
       </c>
-      <c r="J368">
+      <c r="J368" s="1">
         <v>0.251700682991084</v>
       </c>
       <c r="K368">
@@ -12080,13 +12107,13 @@
       <c r="B369" t="s">
         <v>34</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="1">
         <v>0.24003889116906299</v>
       </c>
       <c r="E369">
         <v>0.27476902069869202</v>
       </c>
-      <c r="F369">
+      <c r="F369" s="1">
         <v>0.25360417846325201</v>
       </c>
       <c r="H369">
@@ -12095,7 +12122,7 @@
       <c r="I369">
         <v>0.28171719498333198</v>
       </c>
-      <c r="J369">
+      <c r="J369" s="1">
         <v>0.43112551285177497</v>
       </c>
       <c r="K369">
@@ -12109,16 +12136,16 @@
       <c r="B370" t="s">
         <v>19</v>
       </c>
-      <c r="C370">
+      <c r="C370" s="1">
         <v>0.433178813225224</v>
       </c>
-      <c r="D370">
+      <c r="D370" s="2">
         <v>0.415407405465409</v>
       </c>
       <c r="E370">
         <v>0.47120733418170502</v>
       </c>
-      <c r="F370">
+      <c r="F370" s="1">
         <v>0.44889890725799397</v>
       </c>
       <c r="G370">
@@ -12130,7 +12157,7 @@
       <c r="I370">
         <v>0.51331919736025799</v>
       </c>
-      <c r="J370">
+      <c r="J370" s="1">
         <v>0.46650541205444701</v>
       </c>
       <c r="K370">
@@ -12147,19 +12174,19 @@
       <c r="B371" t="s">
         <v>49</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="1">
         <v>0.48355321675055801</v>
       </c>
-      <c r="D371">
+      <c r="D371" s="2">
         <v>0.42598452483550497</v>
       </c>
       <c r="E371">
         <v>0.27159251801405698</v>
       </c>
-      <c r="F371">
+      <c r="F371" s="1">
         <v>0.25301972191038702</v>
       </c>
-      <c r="J371">
+      <c r="J371" s="1">
         <v>0.24273286229334301</v>
       </c>
     </row>
@@ -12170,10 +12197,10 @@
       <c r="B372" t="s">
         <v>73</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="1">
         <v>0.24700329772197499</v>
       </c>
-      <c r="D372">
+      <c r="D372" s="2">
         <v>0.248907491124814</v>
       </c>
       <c r="E372">
@@ -12187,13 +12214,13 @@
       <c r="B373" t="s">
         <v>50</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="1">
         <v>0.54923117530369703</v>
       </c>
-      <c r="D373">
+      <c r="D373" s="2">
         <v>0.54590420998690903</v>
       </c>
-      <c r="F373">
+      <c r="F373" s="1">
         <v>0.46771785774875502</v>
       </c>
       <c r="G373">
@@ -12210,16 +12237,16 @@
       <c r="B374" t="s">
         <v>35</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="1">
         <v>0.496904120995045</v>
       </c>
-      <c r="D374">
+      <c r="D374" s="2">
         <v>0.48875360227777898</v>
       </c>
       <c r="E374">
         <v>0.50103050150891104</v>
       </c>
-      <c r="F374">
+      <c r="F374" s="1">
         <v>0.57700071703417799</v>
       </c>
       <c r="G374">
@@ -12228,7 +12255,7 @@
       <c r="I374">
         <v>0.57444859766676104</v>
       </c>
-      <c r="J374">
+      <c r="J374" s="1">
         <v>0.25091318118515199</v>
       </c>
     </row>
@@ -12239,16 +12266,16 @@
       <c r="B375" t="s">
         <v>29</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="1">
         <v>0.27664980425820401</v>
       </c>
-      <c r="D375">
+      <c r="D375" s="2">
         <v>0.472784633135931</v>
       </c>
       <c r="E375">
         <v>0.43775328142273701</v>
       </c>
-      <c r="F375">
+      <c r="F375" s="1">
         <v>0.28034189260355902</v>
       </c>
       <c r="G375">
@@ -12260,7 +12287,7 @@
       <c r="I375">
         <v>0.25877148894729901</v>
       </c>
-      <c r="J375">
+      <c r="J375" s="1">
         <v>0.23905299641811101</v>
       </c>
     </row>
@@ -12302,7 +12329,7 @@
       <c r="B378" t="s">
         <v>93</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="1">
         <v>0.147846694131336</v>
       </c>
       <c r="E378">
@@ -12330,7 +12357,7 @@
       <c r="B380" t="s">
         <v>95</v>
       </c>
-      <c r="D380">
+      <c r="D380" s="2">
         <v>0.26200356327160401</v>
       </c>
     </row>
@@ -12341,10 +12368,10 @@
       <c r="B381" t="s">
         <v>66</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="1">
         <v>0.30832762243116801</v>
       </c>
-      <c r="D381">
+      <c r="D381" s="2">
         <v>0.50914876282036003</v>
       </c>
       <c r="I381">
@@ -12358,7 +12385,7 @@
       <c r="B382" t="s">
         <v>75</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="1">
         <v>0.26417273285134701</v>
       </c>
       <c r="G382">
@@ -12372,10 +12399,10 @@
       <c r="B383" t="s">
         <v>76</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="1">
         <v>0.43753089483065899</v>
       </c>
-      <c r="D383">
+      <c r="D383" s="2">
         <v>0.418773517551223</v>
       </c>
     </row>
@@ -12386,7 +12413,7 @@
       <c r="B384" t="s">
         <v>96</v>
       </c>
-      <c r="D384">
+      <c r="D384" s="2">
         <v>0.99059139320571798</v>
       </c>
     </row>
@@ -12397,10 +12424,10 @@
       <c r="B385" t="s">
         <v>41</v>
       </c>
-      <c r="D385">
+      <c r="D385" s="2">
         <v>0.39671376323343699</v>
       </c>
-      <c r="F385">
+      <c r="F385" s="1">
         <v>0.38410103842765903</v>
       </c>
       <c r="H385">
@@ -12420,16 +12447,16 @@
       <c r="B386" t="s">
         <v>8</v>
       </c>
-      <c r="C386">
+      <c r="C386" s="1">
         <v>0.61567593321416303</v>
       </c>
-      <c r="D386">
+      <c r="D386" s="2">
         <v>0.55612791076684898</v>
       </c>
       <c r="E386">
         <v>0.495356793983039</v>
       </c>
-      <c r="F386">
+      <c r="F386" s="1">
         <v>0.61701761368624497</v>
       </c>
       <c r="G386">
@@ -12441,7 +12468,7 @@
       <c r="I386">
         <v>0.63905980119971995</v>
       </c>
-      <c r="J386">
+      <c r="J386" s="1">
         <v>0.65219494444680204</v>
       </c>
       <c r="K386">
@@ -12458,10 +12485,10 @@
       <c r="B387" t="s">
         <v>36</v>
       </c>
-      <c r="C387">
+      <c r="C387" s="1">
         <v>0.61909398142208205</v>
       </c>
-      <c r="D387">
+      <c r="D387" s="2">
         <v>0.40652930572881002</v>
       </c>
       <c r="E387">
@@ -12498,7 +12525,7 @@
       <c r="B389" t="s">
         <v>97</v>
       </c>
-      <c r="C389">
+      <c r="C389" s="1">
         <v>0.277306849104271</v>
       </c>
     </row>
@@ -12509,10 +12536,10 @@
       <c r="B390" t="s">
         <v>78</v>
       </c>
-      <c r="D390">
+      <c r="D390" s="2">
         <v>0.49935161718999599</v>
       </c>
-      <c r="J390">
+      <c r="J390" s="1">
         <v>0.48964751258536898</v>
       </c>
     </row>
@@ -12523,7 +12550,7 @@
       <c r="B391" t="s">
         <v>30</v>
       </c>
-      <c r="C391">
+      <c r="C391" s="1">
         <v>0.82391369884747001</v>
       </c>
       <c r="E391">
@@ -12538,7 +12565,7 @@
       <c r="I391">
         <v>0.762332016402538</v>
       </c>
-      <c r="J391">
+      <c r="J391" s="1">
         <v>0.81627911847940304</v>
       </c>
       <c r="K391">
@@ -12552,16 +12579,16 @@
       <c r="B392" t="s">
         <v>9</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="1">
         <v>0.64674500709615101</v>
       </c>
-      <c r="D392">
+      <c r="D392" s="2">
         <v>0.71942320756480604</v>
       </c>
       <c r="E392">
         <v>0.458977224674184</v>
       </c>
-      <c r="F392">
+      <c r="F392" s="1">
         <v>0.61972445076148897</v>
       </c>
       <c r="G392">
@@ -12573,7 +12600,7 @@
       <c r="I392">
         <v>0.73218324293868497</v>
       </c>
-      <c r="J392">
+      <c r="J392" s="1">
         <v>0.67057593727843201</v>
       </c>
       <c r="K392">
@@ -12590,7 +12617,7 @@
       <c r="B393" t="s">
         <v>67</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="1">
         <v>0.70847892333471896</v>
       </c>
       <c r="G393">
@@ -12607,10 +12634,10 @@
       <c r="B394" t="s">
         <v>51</v>
       </c>
-      <c r="C394">
+      <c r="C394" s="1">
         <v>0.63522051249261502</v>
       </c>
-      <c r="D394">
+      <c r="D394" s="2">
         <v>0.52422499623269603</v>
       </c>
       <c r="E394">
@@ -12627,7 +12654,7 @@
       <c r="B395" t="s">
         <v>98</v>
       </c>
-      <c r="C395">
+      <c r="C395" s="1">
         <v>0.62290747049606399</v>
       </c>
     </row>
@@ -12638,7 +12665,7 @@
       <c r="B396" t="s">
         <v>99</v>
       </c>
-      <c r="D396">
+      <c r="D396" s="2">
         <v>0.26333122682773302</v>
       </c>
     </row>
@@ -12649,7 +12676,7 @@
       <c r="B397" t="s">
         <v>68</v>
       </c>
-      <c r="D397">
+      <c r="D397" s="2">
         <v>0.926893820069293</v>
       </c>
       <c r="G397">
@@ -12677,7 +12704,7 @@
       <c r="B399" t="s">
         <v>69</v>
       </c>
-      <c r="F399">
+      <c r="F399" s="1">
         <v>0.741157190215602</v>
       </c>
       <c r="G399">
@@ -12694,7 +12721,7 @@
       <c r="B400" t="s">
         <v>52</v>
       </c>
-      <c r="D400">
+      <c r="D400" s="2">
         <v>0.58172831018245297</v>
       </c>
       <c r="E400">
@@ -12714,7 +12741,7 @@
       <c r="B401" t="s">
         <v>79</v>
       </c>
-      <c r="C401">
+      <c r="C401" s="1">
         <v>0.31103426753866598</v>
       </c>
       <c r="E401">
@@ -12728,7 +12755,7 @@
       <c r="B402" t="s">
         <v>101</v>
       </c>
-      <c r="D402">
+      <c r="D402" s="2">
         <v>0.53601104587891102</v>
       </c>
     </row>
@@ -12739,7 +12766,7 @@
       <c r="B403" t="s">
         <v>80</v>
       </c>
-      <c r="D403">
+      <c r="D403" s="2">
         <v>0.674449335291049</v>
       </c>
       <c r="E403">
@@ -12753,7 +12780,7 @@
       <c r="B404" t="s">
         <v>102</v>
       </c>
-      <c r="C404">
+      <c r="C404" s="1">
         <v>0.77941204406350895</v>
       </c>
     </row>
@@ -12764,7 +12791,7 @@
       <c r="B405" t="s">
         <v>103</v>
       </c>
-      <c r="D405">
+      <c r="D405" s="2">
         <v>0.23612671022203999</v>
       </c>
     </row>
@@ -12786,10 +12813,10 @@
       <c r="B407" t="s">
         <v>53</v>
       </c>
-      <c r="C407">
+      <c r="C407" s="1">
         <v>2.77777777777777E-2</v>
       </c>
-      <c r="D407">
+      <c r="D407" s="2">
         <v>0.147585660944859</v>
       </c>
       <c r="G407">
@@ -12806,10 +12833,10 @@
       <c r="B408" t="s">
         <v>37</v>
       </c>
-      <c r="C408">
+      <c r="C408" s="1">
         <v>0.46428219792362502</v>
       </c>
-      <c r="D408">
+      <c r="D408" s="2">
         <v>0.21106261847754701</v>
       </c>
       <c r="E408">
@@ -12832,10 +12859,10 @@
       <c r="B409" t="s">
         <v>38</v>
       </c>
-      <c r="C409">
+      <c r="C409" s="1">
         <v>0.26340531550068502</v>
       </c>
-      <c r="D409">
+      <c r="D409" s="2">
         <v>0.380706148448547</v>
       </c>
       <c r="E409">
@@ -12869,7 +12896,7 @@
       <c r="B411" t="s">
         <v>81</v>
       </c>
-      <c r="F411">
+      <c r="F411" s="1">
         <v>0.186026969742039</v>
       </c>
       <c r="I411">
@@ -12883,7 +12910,7 @@
       <c r="B412" t="s">
         <v>82</v>
       </c>
-      <c r="D412">
+      <c r="D412" s="2">
         <v>0.52173607549516599</v>
       </c>
       <c r="I412">
@@ -12897,16 +12924,16 @@
       <c r="B413" t="s">
         <v>25</v>
       </c>
-      <c r="C413">
+      <c r="C413" s="1">
         <v>0.50629689684382395</v>
       </c>
-      <c r="D413">
+      <c r="D413" s="2">
         <v>0.55059975297294494</v>
       </c>
       <c r="E413">
         <v>0.56443114457826904</v>
       </c>
-      <c r="F413">
+      <c r="F413" s="1">
         <v>0.56624661349676297</v>
       </c>
       <c r="G413">
@@ -12918,7 +12945,7 @@
       <c r="I413">
         <v>0.52578174088462803</v>
       </c>
-      <c r="J413">
+      <c r="J413" s="1">
         <v>0.474155423914146</v>
       </c>
     </row>
@@ -12929,16 +12956,16 @@
       <c r="B414" t="s">
         <v>10</v>
       </c>
-      <c r="C414">
+      <c r="C414" s="1">
         <v>0.52858531068849801</v>
       </c>
-      <c r="D414">
+      <c r="D414" s="2">
         <v>0.54663141748780697</v>
       </c>
       <c r="E414">
         <v>0.46238614677019901</v>
       </c>
-      <c r="F414">
+      <c r="F414" s="1">
         <v>0.48039066840821298</v>
       </c>
       <c r="G414">
@@ -12950,7 +12977,7 @@
       <c r="I414">
         <v>0.53402157224872404</v>
       </c>
-      <c r="J414">
+      <c r="J414" s="1">
         <v>0.55460579238599605</v>
       </c>
       <c r="K414">
@@ -12967,10 +12994,10 @@
       <c r="B415" t="s">
         <v>26</v>
       </c>
-      <c r="C415">
+      <c r="C415" s="1">
         <v>0.51923203748987801</v>
       </c>
-      <c r="D415">
+      <c r="D415" s="2">
         <v>0.25339263363051001</v>
       </c>
       <c r="E415">
@@ -12985,7 +13012,7 @@
       <c r="I415">
         <v>0.54488262059877701</v>
       </c>
-      <c r="J415">
+      <c r="J415" s="1">
         <v>0.38786061007771999</v>
       </c>
       <c r="K415">
@@ -12999,16 +13026,16 @@
       <c r="B416" t="s">
         <v>11</v>
       </c>
-      <c r="C416">
+      <c r="C416" s="1">
         <v>0.49867900077737798</v>
       </c>
-      <c r="D416">
+      <c r="D416" s="2">
         <v>0.40299563171366598</v>
       </c>
       <c r="E416">
         <v>0.54556149497506501</v>
       </c>
-      <c r="F416">
+      <c r="F416" s="1">
         <v>0.38309099717045297</v>
       </c>
       <c r="G416">
@@ -13020,7 +13047,7 @@
       <c r="I416">
         <v>0.51627758783565902</v>
       </c>
-      <c r="J416">
+      <c r="J416" s="1">
         <v>0.50713568204772796</v>
       </c>
       <c r="K416">
@@ -13040,7 +13067,7 @@
       <c r="E417">
         <v>0.27667525140685001</v>
       </c>
-      <c r="F417">
+      <c r="F417" s="1">
         <v>0.498149372809502</v>
       </c>
       <c r="H417">
@@ -13057,13 +13084,13 @@
       <c r="B418" t="s">
         <v>70</v>
       </c>
-      <c r="C418">
+      <c r="C418" s="1">
         <v>0.27118652871422</v>
       </c>
       <c r="E418">
         <v>0.25221347500487101</v>
       </c>
-      <c r="F418">
+      <c r="F418" s="1">
         <v>0.18602597648231101</v>
       </c>
     </row>
@@ -13074,7 +13101,7 @@
       <c r="B419" t="s">
         <v>106</v>
       </c>
-      <c r="C419">
+      <c r="C419" s="1">
         <v>0.22815246287076499</v>
       </c>
     </row>
@@ -13091,7 +13118,7 @@
       <c r="H420">
         <v>0.55923444511558995</v>
       </c>
-      <c r="J420">
+      <c r="J420" s="1">
         <v>0.35763391403417699</v>
       </c>
       <c r="K420">
@@ -13105,16 +13132,16 @@
       <c r="B421" t="s">
         <v>12</v>
       </c>
-      <c r="C421">
+      <c r="C421" s="1">
         <v>0.67081468488238505</v>
       </c>
-      <c r="D421">
+      <c r="D421" s="2">
         <v>0.63857142661556798</v>
       </c>
       <c r="E421">
         <v>0.47444194700680897</v>
       </c>
-      <c r="F421">
+      <c r="F421" s="1">
         <v>0.65275325486090197</v>
       </c>
       <c r="G421">
@@ -13126,7 +13153,7 @@
       <c r="I421">
         <v>0.65843798800269204</v>
       </c>
-      <c r="J421">
+      <c r="J421" s="1">
         <v>0.58232747954709696</v>
       </c>
       <c r="K421">
@@ -13143,16 +13170,16 @@
       <c r="B422" t="s">
         <v>13</v>
       </c>
-      <c r="C422">
+      <c r="C422" s="1">
         <v>0.62868067757616797</v>
       </c>
-      <c r="D422">
+      <c r="D422" s="2">
         <v>0.54419244054494997</v>
       </c>
       <c r="E422">
         <v>0.26954840336852298</v>
       </c>
-      <c r="F422">
+      <c r="F422" s="1">
         <v>0.30871460453726701</v>
       </c>
       <c r="G422">
@@ -13164,7 +13191,7 @@
       <c r="I422">
         <v>0.413306376299372</v>
       </c>
-      <c r="J422">
+      <c r="J422" s="1">
         <v>0.47028019511672903</v>
       </c>
       <c r="K422">
@@ -13181,16 +13208,16 @@
       <c r="B423" t="s">
         <v>14</v>
       </c>
-      <c r="C423">
+      <c r="C423" s="1">
         <v>0.56860820832776904</v>
       </c>
-      <c r="D423">
+      <c r="D423" s="2">
         <v>0.54272215953464198</v>
       </c>
       <c r="E423">
         <v>0.479688307527188</v>
       </c>
-      <c r="F423">
+      <c r="F423" s="1">
         <v>0.60637231793707502</v>
       </c>
       <c r="G423">
@@ -13202,7 +13229,7 @@
       <c r="I423">
         <v>0.42380223021805202</v>
       </c>
-      <c r="J423">
+      <c r="J423" s="1">
         <v>0.46228493829051098</v>
       </c>
       <c r="K423">
@@ -13219,13 +13246,13 @@
       <c r="B424" t="s">
         <v>20</v>
       </c>
-      <c r="C424">
+      <c r="C424" s="1">
         <v>0.51396924178164805</v>
       </c>
       <c r="E424">
         <v>0.57117253108360699</v>
       </c>
-      <c r="F424">
+      <c r="F424" s="1">
         <v>0.53378190231832101</v>
       </c>
       <c r="G424">
@@ -13237,7 +13264,7 @@
       <c r="I424">
         <v>0.58957013508190403</v>
       </c>
-      <c r="J424">
+      <c r="J424" s="1">
         <v>0.60839063512161295</v>
       </c>
       <c r="K424">
@@ -13254,16 +13281,16 @@
       <c r="B425" t="s">
         <v>15</v>
       </c>
-      <c r="C425">
+      <c r="C425" s="1">
         <v>0.522555489096035</v>
       </c>
-      <c r="D425">
+      <c r="D425" s="2">
         <v>0.271843793073133</v>
       </c>
       <c r="E425">
         <v>0.49722631199366801</v>
       </c>
-      <c r="F425">
+      <c r="F425" s="1">
         <v>0.41854923837218999</v>
       </c>
       <c r="G425">
@@ -13275,7 +13302,7 @@
       <c r="I425">
         <v>0.553853023668893</v>
       </c>
-      <c r="J425">
+      <c r="J425" s="1">
         <v>0.57912104304812395</v>
       </c>
       <c r="K425">
@@ -13292,10 +13319,10 @@
       <c r="B426" t="s">
         <v>56</v>
       </c>
-      <c r="C426">
+      <c r="C426" s="1">
         <v>0.42689110289910998</v>
       </c>
-      <c r="D426">
+      <c r="D426" s="2">
         <v>0.41741645234248798</v>
       </c>
       <c r="E426">
@@ -13312,7 +13339,7 @@
       <c r="B427" t="s">
         <v>57</v>
       </c>
-      <c r="D427">
+      <c r="D427" s="2">
         <v>0.25078400312708898</v>
       </c>
       <c r="E427">
@@ -13321,7 +13348,7 @@
       <c r="I427">
         <v>0.26463709425328003</v>
       </c>
-      <c r="J427">
+      <c r="J427" s="1">
         <v>0.231212375058401</v>
       </c>
     </row>
@@ -13332,16 +13359,16 @@
       <c r="B428" t="s">
         <v>58</v>
       </c>
-      <c r="D428">
+      <c r="D428" s="2">
         <v>0.32102817913320097</v>
       </c>
-      <c r="F428">
+      <c r="F428" s="1">
         <v>0.38495766891210198</v>
       </c>
       <c r="G428">
         <v>0.76293417798089502</v>
       </c>
-      <c r="J428">
+      <c r="J428" s="1">
         <v>0.71726568736753804</v>
       </c>
     </row>
@@ -13352,16 +13379,16 @@
       <c r="B429" t="s">
         <v>16</v>
       </c>
-      <c r="C429">
+      <c r="C429" s="1">
         <v>0.68897101137837302</v>
       </c>
-      <c r="D429">
+      <c r="D429" s="2">
         <v>0.61547950049965605</v>
       </c>
       <c r="E429">
         <v>0.50821149421914502</v>
       </c>
-      <c r="F429">
+      <c r="F429" s="1">
         <v>0.64885611760820305</v>
       </c>
       <c r="G429">
@@ -13373,7 +13400,7 @@
       <c r="I429">
         <v>0.69197629670895</v>
       </c>
-      <c r="J429">
+      <c r="J429" s="1">
         <v>0.68154129071405201</v>
       </c>
       <c r="K429">
@@ -13390,13 +13417,13 @@
       <c r="B430" t="s">
         <v>21</v>
       </c>
-      <c r="C430">
+      <c r="C430" s="1">
         <v>0.61076658544047102</v>
       </c>
       <c r="E430">
         <v>0.61073709846881097</v>
       </c>
-      <c r="F430">
+      <c r="F430" s="1">
         <v>0.58216023863292099</v>
       </c>
       <c r="G430">
@@ -13408,7 +13435,7 @@
       <c r="I430">
         <v>0.57428544753119504</v>
       </c>
-      <c r="J430">
+      <c r="J430" s="1">
         <v>0.49383119783106399</v>
       </c>
       <c r="K430">
@@ -13425,16 +13452,16 @@
       <c r="B431" t="s">
         <v>17</v>
       </c>
-      <c r="C431">
+      <c r="C431" s="1">
         <v>0.50417939063880202</v>
       </c>
-      <c r="D431">
+      <c r="D431" s="2">
         <v>0.58326247687620303</v>
       </c>
       <c r="E431">
         <v>0.58262762665193202</v>
       </c>
-      <c r="F431">
+      <c r="F431" s="1">
         <v>0.50469877972827004</v>
       </c>
       <c r="G431">
@@ -13446,7 +13473,7 @@
       <c r="I431">
         <v>0.51199304630814901</v>
       </c>
-      <c r="J431">
+      <c r="J431" s="1">
         <v>0.49268245510558401</v>
       </c>
       <c r="K431">
@@ -13463,16 +13490,16 @@
       <c r="B432" t="s">
         <v>22</v>
       </c>
-      <c r="C432">
+      <c r="C432" s="1">
         <v>0.55006115584257298</v>
       </c>
-      <c r="D432">
+      <c r="D432" s="2">
         <v>0.48846088247041403</v>
       </c>
       <c r="E432">
         <v>0.32112810025647598</v>
       </c>
-      <c r="F432">
+      <c r="F432" s="1">
         <v>0.49930133217580402</v>
       </c>
       <c r="G432">
@@ -13484,7 +13511,7 @@
       <c r="I432">
         <v>0.52317097814485702</v>
       </c>
-      <c r="J432">
+      <c r="J432" s="1">
         <v>0.507612216489987</v>
       </c>
       <c r="K432">
@@ -13498,16 +13525,16 @@
       <c r="B433" t="s">
         <v>31</v>
       </c>
-      <c r="C433">
+      <c r="C433" s="1">
         <v>0.31085469777597402</v>
       </c>
-      <c r="D433">
+      <c r="D433" s="2">
         <v>0.490082443789432</v>
       </c>
       <c r="E433">
         <v>0.39439709658369998</v>
       </c>
-      <c r="F433">
+      <c r="F433" s="1">
         <v>0.49198430518596997</v>
       </c>
       <c r="G433">
@@ -13516,7 +13543,7 @@
       <c r="I433">
         <v>0.46925267064388199</v>
       </c>
-      <c r="J433">
+      <c r="J433" s="1">
         <v>0.55526109538414203</v>
       </c>
     </row>
@@ -13527,10 +13554,10 @@
       <c r="B434" t="s">
         <v>83</v>
       </c>
-      <c r="C434">
+      <c r="C434" s="1">
         <v>0.37670843765814199</v>
       </c>
-      <c r="F434">
+      <c r="F434" s="1">
         <v>0.32220189717671499</v>
       </c>
     </row>
@@ -13541,13 +13568,13 @@
       <c r="B435" t="s">
         <v>71</v>
       </c>
-      <c r="C435">
+      <c r="C435" s="1">
         <v>0.597215426565325</v>
       </c>
       <c r="E435">
         <v>0.64586599675787904</v>
       </c>
-      <c r="F435">
+      <c r="F435" s="1">
         <v>0.61291238754794997</v>
       </c>
     </row>
@@ -13558,10 +13585,10 @@
       <c r="B436" t="s">
         <v>59</v>
       </c>
-      <c r="C436">
+      <c r="C436" s="1">
         <v>0.34353930447679498</v>
       </c>
-      <c r="D436">
+      <c r="D436" s="2">
         <v>0.32718730581887101</v>
       </c>
       <c r="E436">
@@ -13578,7 +13605,7 @@
       <c r="B437" t="s">
         <v>84</v>
       </c>
-      <c r="D437">
+      <c r="D437" s="2">
         <v>0.49831355257063598</v>
       </c>
       <c r="E437">
@@ -13592,7 +13619,7 @@
       <c r="B438" t="s">
         <v>107</v>
       </c>
-      <c r="C438">
+      <c r="C438" s="1">
         <v>0.31502991032405098</v>
       </c>
     </row>
@@ -13603,10 +13630,10 @@
       <c r="B439" t="s">
         <v>85</v>
       </c>
-      <c r="D439">
+      <c r="D439" s="2">
         <v>0.13792388531934599</v>
       </c>
-      <c r="J439">
+      <c r="J439" s="1">
         <v>0.213126140609597</v>
       </c>
     </row>
@@ -13617,10 +13644,10 @@
       <c r="B440" t="s">
         <v>42</v>
       </c>
-      <c r="C440">
+      <c r="C440" s="1">
         <v>0.39566573047969</v>
       </c>
-      <c r="D440">
+      <c r="D440" s="2">
         <v>0.32532772541441901</v>
       </c>
       <c r="E440">
@@ -13640,7 +13667,7 @@
       <c r="B441" t="s">
         <v>60</v>
       </c>
-      <c r="C441">
+      <c r="C441" s="1">
         <v>0.19656378585221099</v>
       </c>
       <c r="E441">
@@ -13671,7 +13698,7 @@
       <c r="B443" t="s">
         <v>109</v>
       </c>
-      <c r="C443">
+      <c r="C443" s="1">
         <v>0.17590478893938399</v>
       </c>
     </row>
@@ -13693,7 +13720,7 @@
       <c r="B445" t="s">
         <v>72</v>
       </c>
-      <c r="C445">
+      <c r="C445" s="1">
         <v>0.36610261311366499</v>
       </c>
       <c r="G445">
@@ -13710,10 +13737,10 @@
       <c r="B446" t="s">
         <v>32</v>
       </c>
-      <c r="C446">
+      <c r="C446" s="1">
         <v>0.49176866986878898</v>
       </c>
-      <c r="D446">
+      <c r="D446" s="2">
         <v>0.236787365994098</v>
       </c>
       <c r="E446">
@@ -13728,7 +13755,7 @@
       <c r="I446">
         <v>0.245628253254325</v>
       </c>
-      <c r="J446">
+      <c r="J446" s="1">
         <v>0.52905950541466895</v>
       </c>
     </row>
@@ -13739,10 +13766,10 @@
       <c r="B447" t="s">
         <v>43</v>
       </c>
-      <c r="C447">
+      <c r="C447" s="1">
         <v>0.47672290648825799</v>
       </c>
-      <c r="D447">
+      <c r="D447" s="2">
         <v>0.22547691615549201</v>
       </c>
       <c r="E447">
@@ -13751,7 +13778,7 @@
       <c r="G447">
         <v>0.417554270179959</v>
       </c>
-      <c r="J447">
+      <c r="J447" s="1">
         <v>0.24224339799564601</v>
       </c>
     </row>
@@ -13762,13 +13789,13 @@
       <c r="B448" t="s">
         <v>61</v>
       </c>
-      <c r="C448">
+      <c r="C448" s="1">
         <v>0.25099392940125498</v>
       </c>
       <c r="E448">
         <v>0.192196225063997</v>
       </c>
-      <c r="F448">
+      <c r="F448" s="1">
         <v>0.44313485049909801</v>
       </c>
       <c r="H448">
@@ -13782,19 +13809,19 @@
       <c r="B449" t="s">
         <v>44</v>
       </c>
-      <c r="C449">
+      <c r="C449" s="1">
         <v>0.32638888888888801</v>
       </c>
-      <c r="D449">
+      <c r="D449" s="2">
         <v>0.51128838569205104</v>
       </c>
-      <c r="F449">
+      <c r="F449" s="1">
         <v>0.222597834258938</v>
       </c>
       <c r="I449">
         <v>0.25995569052246997</v>
       </c>
-      <c r="J449">
+      <c r="J449" s="1">
         <v>0.287735580344887</v>
       </c>
     </row>
@@ -13805,7 +13832,7 @@
       <c r="B450" t="s">
         <v>45</v>
       </c>
-      <c r="F450">
+      <c r="F450" s="1">
         <v>0.27675782464867799</v>
       </c>
       <c r="G450">
@@ -13817,7 +13844,7 @@
       <c r="I450">
         <v>0.30874096623777902</v>
       </c>
-      <c r="J450">
+      <c r="J450" s="1">
         <v>0.26338903823969301</v>
       </c>
     </row>
@@ -13828,7 +13855,7 @@
       <c r="B451" t="s">
         <v>46</v>
       </c>
-      <c r="C451">
+      <c r="C451" s="1">
         <v>0.535430574190498</v>
       </c>
       <c r="E451">
@@ -13851,16 +13878,16 @@
       <c r="B452" t="s">
         <v>18</v>
       </c>
-      <c r="C452">
+      <c r="C452" s="1">
         <v>0.56371962546869203</v>
       </c>
-      <c r="D452">
+      <c r="D452" s="2">
         <v>0.27114861956663799</v>
       </c>
       <c r="E452">
         <v>0.55750413874650395</v>
       </c>
-      <c r="F452">
+      <c r="F452" s="1">
         <v>0.52456498721899802</v>
       </c>
       <c r="G452">
@@ -13872,7 +13899,7 @@
       <c r="I452">
         <v>0.27728410606251103</v>
       </c>
-      <c r="J452">
+      <c r="J452" s="1">
         <v>0.25924098493212899</v>
       </c>
       <c r="K452">
@@ -13889,10 +13916,10 @@
       <c r="B453" t="s">
         <v>39</v>
       </c>
-      <c r="C453">
+      <c r="C453" s="1">
         <v>0.53609660739572695</v>
       </c>
-      <c r="D453">
+      <c r="D453" s="2">
         <v>0.52226254667023297</v>
       </c>
       <c r="E453">
@@ -13904,7 +13931,7 @@
       <c r="I453">
         <v>0.29591432404287799</v>
       </c>
-      <c r="J453">
+      <c r="J453" s="1">
         <v>0.289401199875093</v>
       </c>
     </row>
@@ -13915,7 +13942,7 @@
       <c r="B454" t="s">
         <v>62</v>
       </c>
-      <c r="C454">
+      <c r="C454" s="1">
         <v>0.27032500521018399</v>
       </c>
       <c r="G454">
@@ -13924,7 +13951,7 @@
       <c r="H454">
         <v>0.30657906060186002</v>
       </c>
-      <c r="J454">
+      <c r="J454" s="1">
         <v>0.52734826585845596</v>
       </c>
     </row>
@@ -13935,10 +13962,10 @@
       <c r="B455" t="s">
         <v>86</v>
       </c>
-      <c r="D455">
+      <c r="D455" s="2">
         <v>0.50098134307373599</v>
       </c>
-      <c r="J455">
+      <c r="J455" s="1">
         <v>0.61080966566066497</v>
       </c>
     </row>
@@ -13949,13 +13976,13 @@
       <c r="B456" t="s">
         <v>23</v>
       </c>
-      <c r="D456">
+      <c r="D456" s="2">
         <v>0.62772775851255103</v>
       </c>
       <c r="E456">
         <v>0.214773071629657</v>
       </c>
-      <c r="F456">
+      <c r="F456" s="1">
         <v>0.27392786268501701</v>
       </c>
       <c r="G456">
@@ -13967,7 +13994,7 @@
       <c r="I456">
         <v>0.62999934433117599</v>
       </c>
-      <c r="J456">
+      <c r="J456" s="1">
         <v>0.56413282813626198</v>
       </c>
       <c r="K456">
@@ -13984,10 +14011,10 @@
       <c r="B457" t="s">
         <v>33</v>
       </c>
-      <c r="C457">
+      <c r="C457" s="1">
         <v>0.1547920155177</v>
       </c>
-      <c r="D457">
+      <c r="D457" s="2">
         <v>0.30618632070885698</v>
       </c>
       <c r="E457">
@@ -13999,7 +14026,7 @@
       <c r="I457">
         <v>0.224359127031862</v>
       </c>
-      <c r="J457">
+      <c r="J457" s="1">
         <v>0.51112986392730098</v>
       </c>
       <c r="K457">
@@ -14013,13 +14040,13 @@
       <c r="B458" t="s">
         <v>27</v>
       </c>
-      <c r="C458">
+      <c r="C458" s="1">
         <v>0.58043146379222599</v>
       </c>
       <c r="E458">
         <v>0.43320806286675101</v>
       </c>
-      <c r="F458">
+      <c r="F458" s="1">
         <v>0.58391928315252695</v>
       </c>
       <c r="H458">
@@ -14028,7 +14055,7 @@
       <c r="I458">
         <v>0.53968591814155698</v>
       </c>
-      <c r="J458">
+      <c r="J458" s="1">
         <v>0.51772864477045299</v>
       </c>
       <c r="K458">
@@ -14045,16 +14072,16 @@
       <c r="B459" t="s">
         <v>24</v>
       </c>
-      <c r="C459">
+      <c r="C459" s="1">
         <v>0.48835548929852002</v>
       </c>
-      <c r="D459">
+      <c r="D459" s="2">
         <v>0.25282566007018897</v>
       </c>
       <c r="E459">
         <v>0.279462758668581</v>
       </c>
-      <c r="F459">
+      <c r="F459" s="1">
         <v>0.52789109413052604</v>
       </c>
       <c r="G459">
@@ -14066,7 +14093,7 @@
       <c r="I459">
         <v>0.423134596210198</v>
       </c>
-      <c r="J459">
+      <c r="J459" s="1">
         <v>0.61177958648431896</v>
       </c>
       <c r="K459">
@@ -14080,7 +14107,7 @@
       <c r="B460" t="s">
         <v>63</v>
       </c>
-      <c r="C460">
+      <c r="C460" s="1">
         <v>0.56200216445934403</v>
       </c>
       <c r="E460">
@@ -14089,7 +14116,7 @@
       <c r="G460">
         <v>0.287965017165215</v>
       </c>
-      <c r="J460">
+      <c r="J460" s="1">
         <v>0.27409492305543998</v>
       </c>
     </row>
@@ -14100,7 +14127,7 @@
       <c r="B461" t="s">
         <v>87</v>
       </c>
-      <c r="F461">
+      <c r="F461" s="1">
         <v>0.340707594457208</v>
       </c>
       <c r="H461">
@@ -14114,10 +14141,10 @@
       <c r="B462" t="s">
         <v>88</v>
       </c>
-      <c r="C462">
+      <c r="C462" s="1">
         <v>0.33101722687262503</v>
       </c>
-      <c r="F462">
+      <c r="F462" s="1">
         <v>0.38822545652497198</v>
       </c>
     </row>
@@ -14128,10 +14155,10 @@
       <c r="B463" t="s">
         <v>40</v>
       </c>
-      <c r="C463">
+      <c r="C463" s="1">
         <v>0.31666643711628201</v>
       </c>
-      <c r="D463">
+      <c r="D463" s="2">
         <v>0.27827370392596901</v>
       </c>
       <c r="E463">
@@ -14143,7 +14170,7 @@
       <c r="I463">
         <v>0.33423399337692999</v>
       </c>
-      <c r="J463">
+      <c r="J463" s="1">
         <v>0.34014015267415698</v>
       </c>
     </row>
@@ -14190,7 +14217,7 @@
       <c r="B467" t="s">
         <v>64</v>
       </c>
-      <c r="C467">
+      <c r="C467" s="1">
         <v>0.33207889813315999</v>
       </c>
       <c r="E467">
@@ -14199,7 +14226,7 @@
       <c r="H467">
         <v>0.32148901515455403</v>
       </c>
-      <c r="J467">
+      <c r="J467" s="1">
         <v>0.19324347924114599</v>
       </c>
     </row>
@@ -14210,7 +14237,7 @@
       <c r="B468" t="s">
         <v>90</v>
       </c>
-      <c r="C468">
+      <c r="C468" s="1">
         <v>0.39053508941225401</v>
       </c>
       <c r="E468">
@@ -14224,7 +14251,7 @@
       <c r="B469" t="s">
         <v>113</v>
       </c>
-      <c r="J469">
+      <c r="J469" s="1">
         <v>0.452077738990808</v>
       </c>
     </row>
@@ -14249,13 +14276,13 @@
       <c r="B471" t="s">
         <v>47</v>
       </c>
-      <c r="C471">
+      <c r="C471" s="1">
         <v>0.41618806103899297</v>
       </c>
       <c r="E471">
         <v>0.218445384811112</v>
       </c>
-      <c r="F471">
+      <c r="F471" s="1">
         <v>0.45159625130499398</v>
       </c>
       <c r="G471">
@@ -14272,7 +14299,7 @@
       <c r="B472" t="s">
         <v>65</v>
       </c>
-      <c r="C472">
+      <c r="C472" s="1">
         <v>0.44805692380968298</v>
       </c>
       <c r="E472">
@@ -14292,16 +14319,16 @@
       <c r="B473" t="s">
         <v>48</v>
       </c>
-      <c r="C473">
+      <c r="C473" s="1">
         <v>0.22348666368977499</v>
       </c>
-      <c r="D473">
+      <c r="D473" s="2">
         <v>0.194554413028283</v>
       </c>
       <c r="E473">
         <v>0.39378892738641302</v>
       </c>
-      <c r="F473">
+      <c r="F473" s="1">
         <v>0.22151269515859401</v>
       </c>
       <c r="G473">
@@ -14315,7 +14342,7 @@
       <c r="B474" t="s">
         <v>28</v>
       </c>
-      <c r="C474">
+      <c r="C474" s="1">
         <v>0.493330079460435</v>
       </c>
       <c r="E474">
@@ -14330,7 +14357,7 @@
       <c r="I474">
         <v>0.523300684394847</v>
       </c>
-      <c r="J474">
+      <c r="J474" s="1">
         <v>0.251700682991084</v>
       </c>
       <c r="K474">
@@ -14347,13 +14374,13 @@
       <c r="B475" t="s">
         <v>34</v>
       </c>
-      <c r="C475">
+      <c r="C475" s="1">
         <v>0.24003889116906299</v>
       </c>
       <c r="E475">
         <v>0.27476902069869202</v>
       </c>
-      <c r="F475">
+      <c r="F475" s="1">
         <v>0.25360417846325201</v>
       </c>
       <c r="H475">
@@ -14362,7 +14389,7 @@
       <c r="I475">
         <v>0.28171719498333198</v>
       </c>
-      <c r="J475">
+      <c r="J475" s="1">
         <v>0.43112551285177497</v>
       </c>
       <c r="K475">
@@ -14376,16 +14403,16 @@
       <c r="B476" t="s">
         <v>19</v>
       </c>
-      <c r="C476">
+      <c r="C476" s="1">
         <v>0.433178813225224</v>
       </c>
-      <c r="D476">
+      <c r="D476" s="2">
         <v>0.415407405465409</v>
       </c>
       <c r="E476">
         <v>0.47120733418170502</v>
       </c>
-      <c r="F476">
+      <c r="F476" s="1">
         <v>0.44889890725799397</v>
       </c>
       <c r="G476">
@@ -14397,7 +14424,7 @@
       <c r="I476">
         <v>0.51331919736025799</v>
       </c>
-      <c r="J476">
+      <c r="J476" s="1">
         <v>0.46650541205444701</v>
       </c>
       <c r="K476">
@@ -14414,19 +14441,19 @@
       <c r="B477" t="s">
         <v>49</v>
       </c>
-      <c r="C477">
+      <c r="C477" s="1">
         <v>0.48355321675055801</v>
       </c>
-      <c r="D477">
+      <c r="D477" s="2">
         <v>0.42598452483550497</v>
       </c>
       <c r="E477">
         <v>0.27159251801405698</v>
       </c>
-      <c r="F477">
+      <c r="F477" s="1">
         <v>0.25301972191038702</v>
       </c>
-      <c r="J477">
+      <c r="J477" s="1">
         <v>0.24273286229334301</v>
       </c>
     </row>
@@ -14437,10 +14464,10 @@
       <c r="B478" t="s">
         <v>73</v>
       </c>
-      <c r="C478">
+      <c r="C478" s="1">
         <v>0.24700329772197499</v>
       </c>
-      <c r="D478">
+      <c r="D478" s="2">
         <v>0.248907491124814</v>
       </c>
       <c r="E478">
@@ -14476,13 +14503,13 @@
       <c r="B481" t="s">
         <v>50</v>
       </c>
-      <c r="C481">
+      <c r="C481" s="1">
         <v>0.54923117530369703</v>
       </c>
-      <c r="D481">
+      <c r="D481" s="2">
         <v>0.54590420998690903</v>
       </c>
-      <c r="F481">
+      <c r="F481" s="1">
         <v>0.46771785774875502</v>
       </c>
       <c r="G481">
@@ -14499,16 +14526,16 @@
       <c r="B482" t="s">
         <v>35</v>
       </c>
-      <c r="C482">
+      <c r="C482" s="1">
         <v>0.496904120995045</v>
       </c>
-      <c r="D482">
+      <c r="D482" s="2">
         <v>0.48875360227777898</v>
       </c>
       <c r="E482">
         <v>0.50103050150891104</v>
       </c>
-      <c r="F482">
+      <c r="F482" s="1">
         <v>0.57700071703417799</v>
       </c>
       <c r="G482">
@@ -14517,7 +14544,7 @@
       <c r="I482">
         <v>0.57444859766676104</v>
       </c>
-      <c r="J482">
+      <c r="J482" s="1">
         <v>0.25091318118515199</v>
       </c>
     </row>
@@ -14528,16 +14555,16 @@
       <c r="B483" t="s">
         <v>29</v>
       </c>
-      <c r="C483">
+      <c r="C483" s="1">
         <v>0.27664980425820401</v>
       </c>
-      <c r="D483">
+      <c r="D483" s="2">
         <v>0.472784633135931</v>
       </c>
       <c r="E483">
         <v>0.43775328142273701</v>
       </c>
-      <c r="F483">
+      <c r="F483" s="1">
         <v>0.28034189260355902</v>
       </c>
       <c r="G483">
@@ -14549,7 +14576,7 @@
       <c r="I483">
         <v>0.25877148894729901</v>
       </c>
-      <c r="J483">
+      <c r="J483" s="1">
         <v>0.23905299641811101</v>
       </c>
     </row>
@@ -14560,7 +14587,7 @@
       <c r="B484" t="s">
         <v>116</v>
       </c>
-      <c r="F484">
+      <c r="F484" s="1">
         <v>0.65146590692904505</v>
       </c>
     </row>
@@ -14602,7 +14629,7 @@
       <c r="B487" t="s">
         <v>93</v>
       </c>
-      <c r="C487">
+      <c r="C487" s="1">
         <v>0.147846694131336</v>
       </c>
       <c r="E487">
@@ -14627,7 +14654,7 @@
       <c r="B489" t="s">
         <v>118</v>
       </c>
-      <c r="C489">
+      <c r="C489" s="1">
         <v>0.211995693378355</v>
       </c>
     </row>
@@ -14706,6 +14733,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C62:L89">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C90:L90">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -14716,16 +14753,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62:L89">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>